--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f799e150fe4d9a88/Documents/INCA NUSA AQUA/MASTER DASHBOARD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{DC2323EC-4CC0-7143-AA17-C8C1CE459296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4422FC2-1B39-4C83-9D8B-4749FF6F0B8A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0DD4994F-22B5-4272-B3B4-AE0EF758BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA854F7-7AEB-4C7F-A94E-AA9DA1245DCB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
@@ -759,7 +759,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -866,71 +866,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1305,6 +1240,41 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1553,49 +1523,45 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38D72556-B332-B44D-ABF6-9BB13F97707D}" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38D72556-B332-B44D-ABF6-9BB13F97707D}" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A1:U127" xr:uid="{EA8E0BFA-7E16-439B-A6A0-85575A1D2FBB}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{9D02E79B-98C3-9844-B380-B0D65AD9DC79}" name="NO" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{5A828F6E-EFF8-CE46-81AF-EF84E7FBA714}" name="KONTRAK" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{CE4724D1-D5E7-CB4A-A5EB-6E18DA13A6AA}" name="NOMOR DOKUMEN &amp; NO. KONTRAK" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{31BCBA83-6CF1-EA4C-8114-585D2F05F082}" name="JENIS PEKERJAAN" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{CB15F02B-1AE6-5140-AABE-09ADE7EFE5D0}" name="AREA PEKERJAAN" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{B96BDF9A-7437-284D-9C86-1C85FE070F2C}" name="SUB AREA PEKERJAAN" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{67B7B1F2-DA8D-9B46-8755-67C5DD3D51A1}" name="CONCATE PEKERJAAN" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{9D02E79B-98C3-9844-B380-B0D65AD9DC79}" name="NO" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{5A828F6E-EFF8-CE46-81AF-EF84E7FBA714}" name="KONTRAK" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{CE4724D1-D5E7-CB4A-A5EB-6E18DA13A6AA}" name="NOMOR DOKUMEN &amp; NO. KONTRAK" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{31BCBA83-6CF1-EA4C-8114-585D2F05F082}" name="JENIS PEKERJAAN" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{CB15F02B-1AE6-5140-AABE-09ADE7EFE5D0}" name="AREA PEKERJAAN" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{B96BDF9A-7437-284D-9C86-1C85FE070F2C}" name="SUB AREA PEKERJAAN" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{67B7B1F2-DA8D-9B46-8755-67C5DD3D51A1}" name="CONCATE PEKERJAAN" dataDxfId="17">
       <calculatedColumnFormula>B2&amp;D2&amp;F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="14"/>
     <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="1" dataCellStyle="Percent"/>
     <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="16">
+    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISBLANK(I2),0,I2-N2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="15">
+    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="11">
       <calculatedColumnFormula>$L2*$S2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="14">
+    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="10">
       <calculatedColumnFormula>S2-P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(K2),0,(K2-I2)-S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="12">
+    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="8">
       <calculatedColumnFormula>IF(ISBLANK(J2),0,J2-I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="11">
+    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="7">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1924,8 +1890,8 @@
   <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T24" sqref="T24"/>
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,7 +2017,7 @@
         <v>45903</v>
       </c>
       <c r="K2" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L2" s="18">
         <v>0.72240000000000004</v>
@@ -2076,7 +2042,7 @@
       </c>
       <c r="R2" s="22">
         <f>IF(ISBLANK(K2),0,(K2-I2)-S2)</f>
-        <v>-87</v>
+        <v>-66</v>
       </c>
       <c r="S2" s="21">
         <f>IF(ISBLANK(J2),0,J2-I2)</f>
@@ -2084,7 +2050,7 @@
       </c>
       <c r="T2" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="U2" s="23">
         <v>5</v>
@@ -2123,7 +2089,7 @@
         <v>45529</v>
       </c>
       <c r="K3" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
@@ -2146,7 +2112,7 @@
       </c>
       <c r="R3" s="22">
         <f t="shared" ref="R3:R66" si="4">IF(ISBLANK(K3),0,(K3-I3)-S3)</f>
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="S3" s="21">
         <f t="shared" ref="S3:S66" si="5">IF(ISBLANK(J3),0,J3-I3)</f>
@@ -2154,7 +2120,7 @@
       </c>
       <c r="T3" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-293</v>
+        <v>-318</v>
       </c>
       <c r="U3" s="24">
         <v>0</v>
@@ -2193,7 +2159,7 @@
         <v>45669</v>
       </c>
       <c r="K4" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L4" s="18">
         <v>0.78769999999999996</v>
@@ -2218,7 +2184,7 @@
       </c>
       <c r="R4" s="22">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="5"/>
@@ -2226,7 +2192,7 @@
       </c>
       <c r="T4" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-153</v>
+        <v>-178</v>
       </c>
       <c r="U4" s="24">
         <v>1.8586563945729366</v>
@@ -2265,7 +2231,7 @@
         <v>45697</v>
       </c>
       <c r="K5" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -2290,7 +2256,7 @@
       </c>
       <c r="R5" s="22">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="5"/>
@@ -2298,7 +2264,7 @@
       </c>
       <c r="T5" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-150</v>
       </c>
       <c r="U5" s="24">
         <v>0.79194964416177871</v>
@@ -2337,7 +2303,7 @@
         <v>45755</v>
       </c>
       <c r="K6" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L6" s="18">
         <v>0.1246</v>
@@ -2362,7 +2328,7 @@
       </c>
       <c r="R6" s="22">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="5"/>
@@ -2370,7 +2336,7 @@
       </c>
       <c r="T6" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-67</v>
+        <v>-92</v>
       </c>
       <c r="U6" s="24">
         <v>1.8581913281290774</v>
@@ -2409,10 +2375,10 @@
         <v>45781</v>
       </c>
       <c r="K7" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L7" s="18">
-        <v>0.28070000000000001</v>
+        <v>0.3468</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>26</v>
@@ -2426,15 +2392,15 @@
       </c>
       <c r="P7" s="21">
         <f t="shared" si="2"/>
-        <v>7.5789</v>
+        <v>9.3635999999999999</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" si="3"/>
-        <v>19.421099999999999</v>
+        <v>17.636400000000002</v>
       </c>
       <c r="R7" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="5"/>
@@ -2442,7 +2408,7 @@
       </c>
       <c r="T7" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-66</v>
       </c>
       <c r="U7" s="24">
         <v>0.45069827803129847</v>
@@ -2481,10 +2447,10 @@
         <v>45809</v>
       </c>
       <c r="K8" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L8" s="18">
-        <v>0.19450000000000001</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>32</v>
@@ -2498,15 +2464,15 @@
       </c>
       <c r="P8" s="21">
         <f t="shared" si="2"/>
-        <v>5.2515000000000001</v>
+        <v>5.3648999999999996</v>
       </c>
       <c r="Q8" s="21">
         <f t="shared" si="3"/>
-        <v>21.7485</v>
+        <v>21.635100000000001</v>
       </c>
       <c r="R8" s="22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="5"/>
@@ -2514,7 +2480,7 @@
       </c>
       <c r="T8" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-13</v>
+        <v>-38</v>
       </c>
       <c r="U8" s="24">
         <v>6.4714074693689341</v>
@@ -2553,10 +2519,10 @@
         <v>45781</v>
       </c>
       <c r="K9" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L9" s="18">
-        <v>0.3276</v>
+        <v>0.41089999999999999</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>32</v>
@@ -2570,15 +2536,15 @@
       </c>
       <c r="P9" s="21">
         <f t="shared" si="2"/>
-        <v>82.227599999999995</v>
+        <v>103.13589999999999</v>
       </c>
       <c r="Q9" s="21">
         <f t="shared" si="3"/>
-        <v>168.7724</v>
+        <v>147.86410000000001</v>
       </c>
       <c r="R9" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="5"/>
@@ -2586,7 +2552,7 @@
       </c>
       <c r="T9" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-66</v>
       </c>
       <c r="U9" s="24">
         <v>2.1938359438979802</v>
@@ -2625,7 +2591,7 @@
         <v>45648</v>
       </c>
       <c r="K10" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L10" s="18">
         <v>0.4572</v>
@@ -2650,7 +2616,7 @@
       </c>
       <c r="R10" s="22">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="5"/>
@@ -2658,7 +2624,7 @@
       </c>
       <c r="T10" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-174</v>
+        <v>-199</v>
       </c>
       <c r="U10" s="24">
         <v>1.4899400056670535</v>
@@ -2697,10 +2663,10 @@
         <v>45830</v>
       </c>
       <c r="K11" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L11" s="18">
-        <v>1.21E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>40</v>
@@ -2714,15 +2680,15 @@
       </c>
       <c r="P11" s="21">
         <f t="shared" si="2"/>
-        <v>4.0534999999999997</v>
+        <v>4.1539999999999999</v>
       </c>
       <c r="Q11" s="21">
         <f t="shared" si="3"/>
-        <v>330.94650000000001</v>
+        <v>330.846</v>
       </c>
       <c r="R11" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="5"/>
@@ -2730,7 +2696,7 @@
       </c>
       <c r="T11" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="U11" s="24">
         <v>33.058446215526629</v>
@@ -2769,7 +2735,7 @@
         <v>45830</v>
       </c>
       <c r="K12" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -2794,7 +2760,7 @@
       </c>
       <c r="R12" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="5"/>
@@ -2802,7 +2768,7 @@
       </c>
       <c r="T12" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="U12" s="24">
         <v>1.8989416148357232</v>
@@ -2841,7 +2807,7 @@
         <v>45704</v>
       </c>
       <c r="K13" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -2866,7 +2832,7 @@
       </c>
       <c r="R13" s="22">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="5"/>
@@ -2874,7 +2840,7 @@
       </c>
       <c r="T13" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>-143</v>
       </c>
       <c r="U13" s="24">
         <v>0.61599151131979568</v>
@@ -2913,7 +2879,7 @@
         <v>45760</v>
       </c>
       <c r="K14" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -2938,7 +2904,7 @@
       </c>
       <c r="R14" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="5"/>
@@ -2946,7 +2912,7 @@
       </c>
       <c r="T14" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-87</v>
       </c>
       <c r="U14" s="24">
         <v>0.42275200889415104</v>
@@ -2985,7 +2951,7 @@
         <v>45767</v>
       </c>
       <c r="K15" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -3010,7 +2976,7 @@
       </c>
       <c r="R15" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="5"/>
@@ -3018,7 +2984,7 @@
       </c>
       <c r="T15" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-80</v>
       </c>
       <c r="U15" s="24">
         <v>5.4312137246679076E-2</v>
@@ -3057,10 +3023,10 @@
         <v>45788</v>
       </c>
       <c r="K16" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L16" s="18">
-        <v>0.42799999999999999</v>
+        <v>0.4385</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>26</v>
@@ -3074,15 +3040,15 @@
       </c>
       <c r="P16" s="21">
         <f t="shared" si="2"/>
-        <v>125.404</v>
+        <v>128.48050000000001</v>
       </c>
       <c r="Q16" s="21">
         <f t="shared" si="3"/>
-        <v>167.596</v>
+        <v>164.51949999999999</v>
       </c>
       <c r="R16" s="22">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="S16" s="21">
         <f t="shared" si="5"/>
@@ -3090,7 +3056,7 @@
       </c>
       <c r="T16" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-59</v>
       </c>
       <c r="U16" s="24">
         <v>0.74004960479265314</v>
@@ -3129,7 +3095,7 @@
         <v>45788</v>
       </c>
       <c r="K17" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -3154,7 +3120,7 @@
       </c>
       <c r="R17" s="22">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="5"/>
@@ -3162,7 +3128,7 @@
       </c>
       <c r="T17" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-59</v>
       </c>
       <c r="U17" s="24">
         <v>0.17748202368678323</v>
@@ -3201,7 +3167,7 @@
         <v>45697</v>
       </c>
       <c r="K18" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L18" s="18">
         <v>0.99970000000000003</v>
@@ -3226,7 +3192,7 @@
       </c>
       <c r="R18" s="22">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="S18" s="21">
         <f t="shared" si="5"/>
@@ -3234,7 +3200,7 @@
       </c>
       <c r="T18" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-150</v>
       </c>
       <c r="U18" s="24">
         <v>3.9250044561777282E-2</v>
@@ -3273,7 +3239,7 @@
         <v>45697</v>
       </c>
       <c r="K19" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L19" s="18">
         <v>0</v>
@@ -3298,7 +3264,7 @@
       </c>
       <c r="R19" s="22">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="5"/>
@@ -3306,7 +3272,7 @@
       </c>
       <c r="T19" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-150</v>
       </c>
       <c r="U19" s="24">
         <v>4.9777015190575383E-2</v>
@@ -3345,10 +3311,10 @@
         <v>45781</v>
       </c>
       <c r="K20" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L20" s="18">
-        <v>0.1221</v>
+        <v>0.14860000000000001</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>32</v>
@@ -3362,15 +3328,15 @@
       </c>
       <c r="P20" s="21">
         <f t="shared" si="2"/>
-        <v>23.8095</v>
+        <v>28.977</v>
       </c>
       <c r="Q20" s="21">
         <f t="shared" si="3"/>
-        <v>171.19049999999999</v>
+        <v>166.023</v>
       </c>
       <c r="R20" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="S20" s="21">
         <f t="shared" si="5"/>
@@ -3378,7 +3344,7 @@
       </c>
       <c r="T20" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-66</v>
       </c>
       <c r="U20" s="24">
         <v>1.9866670170786576</v>
@@ -3417,7 +3383,7 @@
         <v>45823</v>
       </c>
       <c r="K21" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L21" s="18">
         <v>9.69E-2</v>
@@ -3442,7 +3408,7 @@
       </c>
       <c r="R21" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="S21" s="21">
         <f t="shared" si="5"/>
@@ -3450,7 +3416,7 @@
       </c>
       <c r="T21" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="U21" s="24">
         <v>8.0826749208230453</v>
@@ -3489,7 +3455,7 @@
         <v>45823</v>
       </c>
       <c r="K22" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -3514,7 +3480,7 @@
       </c>
       <c r="R22" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="S22" s="21">
         <f t="shared" si="5"/>
@@ -3522,7 +3488,7 @@
       </c>
       <c r="T22" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="U22" s="24">
         <v>4.8861619889981514E-2</v>
@@ -3561,7 +3527,7 @@
         <v>45767</v>
       </c>
       <c r="K23" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L23" s="18">
         <v>0</v>
@@ -3586,7 +3552,7 @@
       </c>
       <c r="R23" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="S23" s="21">
         <f t="shared" si="5"/>
@@ -3594,7 +3560,7 @@
       </c>
       <c r="T23" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-80</v>
       </c>
       <c r="U23" s="24">
         <v>0.22890573488117585</v>
@@ -3633,7 +3599,7 @@
         <v>45760</v>
       </c>
       <c r="K24" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L24" s="18">
         <v>0</v>
@@ -3658,7 +3624,7 @@
       </c>
       <c r="R24" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="S24" s="21">
         <f t="shared" si="5"/>
@@ -3666,7 +3632,7 @@
       </c>
       <c r="T24" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-62</v>
+        <v>-87</v>
       </c>
       <c r="U24" s="24">
         <v>7.4966605347794035E-2</v>
@@ -3705,7 +3671,7 @@
         <v>45823</v>
       </c>
       <c r="K25" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L25" s="18">
         <v>0</v>
@@ -3730,7 +3696,7 @@
       </c>
       <c r="R25" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="S25" s="21">
         <f t="shared" si="5"/>
@@ -3738,7 +3704,7 @@
       </c>
       <c r="T25" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="U25" s="24">
         <v>0.4156489033720388</v>
@@ -3777,7 +3743,7 @@
         <v>45830</v>
       </c>
       <c r="K26" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L26" s="18">
         <v>0</v>
@@ -3802,7 +3768,7 @@
       </c>
       <c r="R26" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S26" s="21">
         <f t="shared" si="5"/>
@@ -3810,7 +3776,7 @@
       </c>
       <c r="T26" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="U26" s="24">
         <v>0.34221449233860612</v>
@@ -3849,7 +3815,7 @@
         <v>45683</v>
       </c>
       <c r="K27" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L27" s="18">
         <v>0.20930000000000001</v>
@@ -3874,7 +3840,7 @@
       </c>
       <c r="R27" s="22">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" si="5"/>
@@ -3882,7 +3848,7 @@
       </c>
       <c r="T27" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-164</v>
       </c>
       <c r="U27" s="24">
         <v>2.0404487343946266E-2</v>
@@ -3921,7 +3887,7 @@
         <v>45725</v>
       </c>
       <c r="K28" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L28" s="18">
         <v>0</v>
@@ -3946,7 +3912,7 @@
       </c>
       <c r="R28" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" si="5"/>
@@ -3954,7 +3920,7 @@
       </c>
       <c r="T28" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-122</v>
       </c>
       <c r="U28" s="24">
         <v>2.3371433481226382E-2</v>
@@ -3993,7 +3959,7 @@
         <v>45837</v>
       </c>
       <c r="K29" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L29" s="18">
         <v>4.7800000000000002E-2</v>
@@ -4018,7 +3984,7 @@
       </c>
       <c r="R29" s="22">
         <f t="shared" si="4"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="S29" s="21">
         <f t="shared" si="5"/>
@@ -4026,7 +3992,7 @@
       </c>
       <c r="T29" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="U29" s="24">
         <v>2.9187755059895788</v>
@@ -4065,7 +4031,7 @@
         <v>45872</v>
       </c>
       <c r="K30" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4090,7 +4056,7 @@
       </c>
       <c r="R30" s="22">
         <f t="shared" si="4"/>
-        <v>-56</v>
+        <v>-35</v>
       </c>
       <c r="S30" s="21">
         <f t="shared" si="5"/>
@@ -4098,7 +4064,7 @@
       </c>
       <c r="T30" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="U30" s="24">
         <v>0.11596582079047627</v>
@@ -4137,7 +4103,7 @@
         <v>45774</v>
       </c>
       <c r="K31" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4162,7 +4128,7 @@
       </c>
       <c r="R31" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="S31" s="21">
         <f t="shared" si="5"/>
@@ -4170,7 +4136,7 @@
       </c>
       <c r="T31" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-73</v>
       </c>
       <c r="U31" s="24">
         <v>8.1747544717989548E-2</v>
@@ -4209,7 +4175,7 @@
         <v>45725</v>
       </c>
       <c r="K32" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4234,7 +4200,7 @@
       </c>
       <c r="R32" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="S32" s="21">
         <f t="shared" si="5"/>
@@ -4242,7 +4208,7 @@
       </c>
       <c r="T32" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-122</v>
       </c>
       <c r="U32" s="24">
         <v>4.396791761852549E-2</v>
@@ -4281,7 +4247,7 @@
         <v>45725</v>
       </c>
       <c r="K33" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4306,7 +4272,7 @@
       </c>
       <c r="R33" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="S33" s="21">
         <f t="shared" si="5"/>
@@ -4314,7 +4280,7 @@
       </c>
       <c r="T33" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-122</v>
       </c>
       <c r="U33" s="24">
         <v>1.2091683970173784E-2</v>
@@ -4353,7 +4319,7 @@
         <v>45683</v>
       </c>
       <c r="K34" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L34" s="18">
         <v>0.1056</v>
@@ -4378,7 +4344,7 @@
       </c>
       <c r="R34" s="22">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="S34" s="21">
         <f t="shared" si="5"/>
@@ -4386,7 +4352,7 @@
       </c>
       <c r="T34" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-164</v>
       </c>
       <c r="U34" s="24">
         <v>2.2129086244257725</v>
@@ -4425,7 +4391,7 @@
         <v>45788</v>
       </c>
       <c r="K35" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L35" s="18">
         <v>0.21909999999999999</v>
@@ -4450,7 +4416,7 @@
       </c>
       <c r="R35" s="22">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="S35" s="21">
         <f t="shared" si="5"/>
@@ -4458,7 +4424,7 @@
       </c>
       <c r="T35" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>-59</v>
       </c>
       <c r="U35" s="24">
         <v>0.7163956909384217</v>
@@ -4497,7 +4463,7 @@
         <v>45879</v>
       </c>
       <c r="K36" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4522,7 +4488,7 @@
       </c>
       <c r="R36" s="22">
         <f t="shared" si="4"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S36" s="21">
         <f t="shared" si="5"/>
@@ -4530,7 +4496,7 @@
       </c>
       <c r="T36" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="U36" s="24">
         <v>2.788276283922893</v>
@@ -4569,7 +4535,7 @@
         <v>45879</v>
       </c>
       <c r="K37" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L37" s="18">
         <v>0.84599999999999997</v>
@@ -4594,7 +4560,7 @@
       </c>
       <c r="R37" s="22">
         <f t="shared" si="4"/>
-        <v>-63</v>
+        <v>-42</v>
       </c>
       <c r="S37" s="21">
         <f t="shared" si="5"/>
@@ -4602,7 +4568,7 @@
       </c>
       <c r="T37" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="U37" s="24">
         <v>0.24445340046690409</v>
@@ -4641,10 +4607,10 @@
         <v>45781</v>
       </c>
       <c r="K38" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L38" s="18">
-        <v>0.2898</v>
+        <v>0.33679999999999999</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>42</v>
@@ -4658,15 +4624,15 @@
       </c>
       <c r="P38" s="21">
         <f t="shared" si="2"/>
-        <v>7.8246000000000002</v>
+        <v>9.0936000000000003</v>
       </c>
       <c r="Q38" s="21">
         <f t="shared" si="3"/>
-        <v>19.1754</v>
+        <v>17.906399999999998</v>
       </c>
       <c r="R38" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="S38" s="21">
         <f t="shared" si="5"/>
@@ -4674,7 +4640,7 @@
       </c>
       <c r="T38" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-41</v>
+        <v>-66</v>
       </c>
       <c r="U38" s="24">
         <v>1.3834064445609398</v>
@@ -4713,7 +4679,7 @@
         <v>45767</v>
       </c>
       <c r="K39" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L39" s="18">
         <v>0</v>
@@ -4738,7 +4704,7 @@
       </c>
       <c r="R39" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="S39" s="21">
         <f t="shared" si="5"/>
@@ -4746,7 +4712,7 @@
       </c>
       <c r="T39" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>-80</v>
       </c>
       <c r="U39" s="24">
         <v>0.39134230671971154</v>
@@ -4785,7 +4751,7 @@
         <v>45831</v>
       </c>
       <c r="K40" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L40" s="18">
         <v>4.4999999999999997E-3</v>
@@ -4810,7 +4776,7 @@
       </c>
       <c r="R40" s="22">
         <f t="shared" si="4"/>
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="S40" s="21">
         <f t="shared" si="5"/>
@@ -4818,7 +4784,7 @@
       </c>
       <c r="T40" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="U40" s="24">
         <v>0.10777677087659648</v>
@@ -4857,7 +4823,7 @@
         <v>45830</v>
       </c>
       <c r="K41" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L41" s="18">
         <v>8.1500000000000003E-2</v>
@@ -4882,7 +4848,7 @@
       </c>
       <c r="R41" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S41" s="21">
         <f t="shared" si="5"/>
@@ -4890,7 +4856,7 @@
       </c>
       <c r="T41" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="U41" s="24">
         <v>8.2318386059768451E-3</v>
@@ -4929,7 +4895,7 @@
         <v>45774</v>
       </c>
       <c r="K42" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L42" s="18">
         <v>0.20580000000000001</v>
@@ -4954,7 +4920,7 @@
       </c>
       <c r="R42" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="S42" s="21">
         <f t="shared" si="5"/>
@@ -4962,7 +4928,7 @@
       </c>
       <c r="T42" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-73</v>
       </c>
       <c r="U42" s="24">
         <v>6.3041469860199054E-2</v>
@@ -5001,7 +4967,7 @@
         <v>45725</v>
       </c>
       <c r="K43" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L43" s="18">
         <v>0.2019</v>
@@ -5026,7 +4992,7 @@
       </c>
       <c r="R43" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="S43" s="21">
         <f t="shared" si="5"/>
@@ -5034,7 +5000,7 @@
       </c>
       <c r="T43" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-122</v>
       </c>
       <c r="U43" s="24">
         <v>3.5386814494663736E-2</v>
@@ -5073,10 +5039,10 @@
         <v>45830</v>
       </c>
       <c r="K44" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L44" s="18">
-        <v>0.16600000000000001</v>
+        <v>0.2301</v>
       </c>
       <c r="M44" s="19" t="s">
         <v>42</v>
@@ -5090,15 +5056,15 @@
       </c>
       <c r="P44" s="21">
         <f t="shared" si="2"/>
-        <v>31.208000000000002</v>
+        <v>43.258800000000001</v>
       </c>
       <c r="Q44" s="21">
         <f t="shared" si="3"/>
-        <v>156.792</v>
+        <v>144.74119999999999</v>
       </c>
       <c r="R44" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="S44" s="21">
         <f t="shared" si="5"/>
@@ -5106,7 +5072,7 @@
       </c>
       <c r="T44" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="U44" s="24">
         <v>0.58542108403682003</v>
@@ -5145,10 +5111,10 @@
         <v>45816</v>
       </c>
       <c r="K45" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L45" s="18">
-        <v>0.28089999999999998</v>
+        <v>0.31469999999999998</v>
       </c>
       <c r="M45" s="19" t="s">
         <v>42</v>
@@ -5162,15 +5128,15 @@
       </c>
       <c r="P45" s="21">
         <f t="shared" si="2"/>
-        <v>94.101499999999987</v>
+        <v>105.42449999999999</v>
       </c>
       <c r="Q45" s="21">
         <f t="shared" si="3"/>
-        <v>240.89850000000001</v>
+        <v>229.57550000000001</v>
       </c>
       <c r="R45" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S45" s="21">
         <f t="shared" si="5"/>
@@ -5178,7 +5144,7 @@
       </c>
       <c r="T45" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-6</v>
+        <v>-31</v>
       </c>
       <c r="U45" s="24">
         <v>18.96429322855024</v>
@@ -5217,7 +5183,7 @@
         <v>45725</v>
       </c>
       <c r="K46" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L46" s="18">
         <v>7.6799999999999993E-2</v>
@@ -5242,7 +5208,7 @@
       </c>
       <c r="R46" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="S46" s="21">
         <f t="shared" si="5"/>
@@ -5250,7 +5216,7 @@
       </c>
       <c r="T46" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-122</v>
       </c>
       <c r="U46" s="24">
         <v>2.1882553326908354E-2</v>
@@ -5289,10 +5255,10 @@
         <v>45697</v>
       </c>
       <c r="K47" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L47" s="18">
-        <v>0.25319999999999998</v>
+        <v>0.44629999999999997</v>
       </c>
       <c r="M47" s="19" t="s">
         <v>42</v>
@@ -5306,15 +5272,15 @@
       </c>
       <c r="P47" s="21">
         <f t="shared" si="2"/>
-        <v>6.8363999999999994</v>
+        <v>12.050099999999999</v>
       </c>
       <c r="Q47" s="21">
         <f t="shared" si="3"/>
-        <v>20.163600000000002</v>
+        <v>14.949900000000001</v>
       </c>
       <c r="R47" s="22">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="S47" s="21">
         <f t="shared" si="5"/>
@@ -5322,7 +5288,7 @@
       </c>
       <c r="T47" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>-150</v>
       </c>
       <c r="U47" s="24">
         <v>0.10433791562790558</v>
@@ -5361,7 +5327,7 @@
         <v>45774</v>
       </c>
       <c r="K48" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L48" s="18">
         <v>0</v>
@@ -5386,7 +5352,7 @@
       </c>
       <c r="R48" s="22">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="S48" s="21">
         <f t="shared" si="5"/>
@@ -5394,7 +5360,7 @@
       </c>
       <c r="T48" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>-73</v>
       </c>
       <c r="U48" s="24">
         <v>1.6500421520262731</v>
@@ -5433,7 +5399,7 @@
         <v>45823</v>
       </c>
       <c r="K49" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L49" s="18">
         <v>0</v>
@@ -5458,7 +5424,7 @@
       </c>
       <c r="R49" s="22">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="S49" s="21">
         <f t="shared" si="5"/>
@@ -5466,7 +5432,7 @@
       </c>
       <c r="T49" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="U49" s="24">
         <v>1.4876499045579906E-2</v>
@@ -5505,10 +5471,10 @@
         <v>45837</v>
       </c>
       <c r="K50" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L50" s="18">
-        <v>0</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="M50" s="19" t="s">
         <v>42</v>
@@ -5522,15 +5488,15 @@
       </c>
       <c r="P50" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.9984999999999999</v>
       </c>
       <c r="Q50" s="21">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>51.0015</v>
       </c>
       <c r="R50" s="22">
         <f t="shared" si="4"/>
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="S50" s="21">
         <f t="shared" si="5"/>
@@ -5538,7 +5504,7 @@
       </c>
       <c r="T50" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="U50" s="24">
         <v>6.7954571404563111E-2</v>
@@ -5577,7 +5543,7 @@
         <v>45725</v>
       </c>
       <c r="K51" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L51" s="18">
         <v>9.7999999999999997E-3</v>
@@ -5602,7 +5568,7 @@
       </c>
       <c r="R51" s="22">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="S51" s="21">
         <f t="shared" si="5"/>
@@ -5610,7 +5576,7 @@
       </c>
       <c r="T51" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-97</v>
+        <v>-122</v>
       </c>
       <c r="U51" s="24">
         <v>0.24341470950651456</v>
@@ -5649,10 +5615,10 @@
         <v>45942</v>
       </c>
       <c r="K52" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L52" s="18">
-        <v>0.46679999999999999</v>
+        <v>0.511185</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>26</v>
@@ -5666,15 +5632,15 @@
       </c>
       <c r="P52" s="21">
         <f t="shared" si="2"/>
-        <v>198.85679999999999</v>
+        <v>217.76481000000001</v>
       </c>
       <c r="Q52" s="21">
         <f t="shared" si="3"/>
-        <v>227.14320000000001</v>
+        <v>208.23518999999999</v>
       </c>
       <c r="R52" s="22">
         <f t="shared" si="4"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S52" s="21">
         <f t="shared" si="5"/>
@@ -5682,7 +5648,7 @@
       </c>
       <c r="T52" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U52" s="24">
         <v>0</v>
@@ -5721,7 +5687,7 @@
         <v>45942</v>
       </c>
       <c r="K53" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L53" s="18">
         <v>1</v>
@@ -5746,7 +5712,7 @@
       </c>
       <c r="R53" s="22">
         <f t="shared" si="4"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" si="5"/>
@@ -5754,7 +5720,7 @@
       </c>
       <c r="T53" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U53" s="24">
         <v>0</v>
@@ -5793,7 +5759,7 @@
         <v>45942</v>
       </c>
       <c r="K54" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L54" s="18">
         <v>0</v>
@@ -5818,7 +5784,7 @@
       </c>
       <c r="R54" s="22">
         <f t="shared" si="4"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S54" s="21">
         <f t="shared" si="5"/>
@@ -5826,7 +5792,7 @@
       </c>
       <c r="T54" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U54" s="24">
         <v>0</v>
@@ -5859,16 +5825,16 @@
         <v>25</v>
       </c>
       <c r="I55" s="27">
-        <v>45566</v>
+        <v>45762</v>
       </c>
       <c r="J55" s="28">
-        <v>45728</v>
+        <v>45816</v>
       </c>
       <c r="K55" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L55" s="18">
-        <v>0.7036</v>
+        <v>0.96005099999999999</v>
       </c>
       <c r="M55" s="19" t="s">
         <v>26</v>
@@ -5878,27 +5844,27 @@
       </c>
       <c r="O55" s="21">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="P55" s="21">
         <f t="shared" si="2"/>
-        <v>113.9832</v>
+        <v>51.842753999999999</v>
       </c>
       <c r="Q55" s="21">
         <f t="shared" si="3"/>
-        <v>48.016800000000003</v>
+        <v>2.1572460000000007</v>
       </c>
       <c r="R55" s="22">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S55" s="21">
         <f t="shared" si="5"/>
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="T55" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-94</v>
+        <v>-31</v>
       </c>
       <c r="U55" s="24">
         <v>7.3157389496987042</v>
@@ -5931,16 +5897,16 @@
         <v>117</v>
       </c>
       <c r="I56" s="27">
-        <v>45726</v>
+        <v>45762</v>
       </c>
       <c r="J56" s="28">
-        <v>45798</v>
+        <v>45865</v>
       </c>
       <c r="K56" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L56" s="18">
-        <v>0.35830000000000001</v>
+        <v>0.52338700000000005</v>
       </c>
       <c r="M56" s="19" t="s">
         <v>26</v>
@@ -5950,27 +5916,27 @@
       </c>
       <c r="O56" s="21">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="P56" s="21">
         <f t="shared" si="2"/>
-        <v>25.797599999999999</v>
+        <v>53.908861000000002</v>
       </c>
       <c r="Q56" s="21">
         <f t="shared" si="3"/>
-        <v>46.202399999999997</v>
+        <v>49.091138999999998</v>
       </c>
       <c r="R56" s="22">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>-28</v>
       </c>
       <c r="S56" s="21">
         <f t="shared" si="5"/>
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="T56" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-24</v>
+        <v>19</v>
       </c>
       <c r="U56" s="24">
         <v>1.2678290518311721</v>
@@ -6003,13 +5969,13 @@
         <v>25</v>
       </c>
       <c r="I57" s="27">
-        <v>45754</v>
+        <v>45782</v>
       </c>
       <c r="J57" s="28">
-        <v>45761</v>
+        <v>45802</v>
       </c>
       <c r="K57" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L57" s="18">
         <v>1</v>
@@ -6022,11 +5988,11 @@
       </c>
       <c r="O57" s="21">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="P57" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="21">
         <f t="shared" si="3"/>
@@ -6034,15 +6000,15 @@
       </c>
       <c r="R57" s="22">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="S57" s="21">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="T57" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-61</v>
+        <v>-45</v>
       </c>
       <c r="U57" s="24">
         <v>0.90362130154493769</v>
@@ -6075,13 +6041,13 @@
         <v>25</v>
       </c>
       <c r="I58" s="27">
-        <v>45698</v>
+        <v>45782</v>
       </c>
       <c r="J58" s="28">
-        <v>45791</v>
+        <v>45802</v>
       </c>
       <c r="K58" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L58" s="18">
         <v>1</v>
@@ -6094,11 +6060,11 @@
       </c>
       <c r="O58" s="21">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="P58" s="21">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="21">
         <f t="shared" si="3"/>
@@ -6106,15 +6072,15 @@
       </c>
       <c r="R58" s="22">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="S58" s="21">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="T58" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-31</v>
+        <v>-45</v>
       </c>
       <c r="U58" s="24">
         <v>0.90362130154493769</v>
@@ -6147,16 +6113,16 @@
         <v>117</v>
       </c>
       <c r="I59" s="27">
-        <v>45747</v>
+        <v>45768</v>
       </c>
       <c r="J59" s="28">
-        <v>45787</v>
+        <v>45823</v>
       </c>
       <c r="K59" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L59" s="18">
-        <v>0.28550700000000001</v>
+        <v>0.29275000000000001</v>
       </c>
       <c r="M59" s="19" t="s">
         <v>26</v>
@@ -6166,27 +6132,27 @@
       </c>
       <c r="O59" s="21">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="P59" s="21">
         <f t="shared" si="2"/>
-        <v>11.42028</v>
+        <v>16.10125</v>
       </c>
       <c r="Q59" s="21">
         <f t="shared" si="3"/>
-        <v>28.579720000000002</v>
+        <v>38.89875</v>
       </c>
       <c r="R59" s="22">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="S59" s="21">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="T59" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="U59" s="24">
         <v>0.90362130154493769</v>
@@ -6219,16 +6185,16 @@
         <v>25</v>
       </c>
       <c r="I60" s="27">
-        <v>45579</v>
+        <v>45768</v>
       </c>
       <c r="J60" s="28">
-        <v>45738</v>
+        <v>45858</v>
       </c>
       <c r="K60" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L60" s="18">
-        <v>0.91279999999999994</v>
+        <v>0.98615299999999995</v>
       </c>
       <c r="M60" s="19" t="s">
         <v>26</v>
@@ -6238,27 +6204,27 @@
       </c>
       <c r="O60" s="21">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="P60" s="21">
         <f t="shared" si="2"/>
-        <v>145.1352</v>
+        <v>88.753769999999989</v>
       </c>
       <c r="Q60" s="21">
         <f t="shared" si="3"/>
-        <v>13.864800000000002</v>
+        <v>1.2462300000000113</v>
       </c>
       <c r="R60" s="22">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>-21</v>
       </c>
       <c r="S60" s="21">
         <f t="shared" si="5"/>
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="T60" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-84</v>
+        <v>12</v>
       </c>
       <c r="U60" s="24">
         <v>1.5818776119585585</v>
@@ -6291,16 +6257,16 @@
         <v>116</v>
       </c>
       <c r="I61" s="27">
-        <v>45712</v>
+        <v>45768</v>
       </c>
       <c r="J61" s="28">
-        <v>45777</v>
+        <v>45893</v>
       </c>
       <c r="K61" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L61" s="18">
-        <v>7.1874999999999994E-2</v>
+        <v>8.0803E-2</v>
       </c>
       <c r="M61" s="19" t="s">
         <v>26</v>
@@ -6310,27 +6276,27 @@
       </c>
       <c r="O61" s="21">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="P61" s="21">
         <f t="shared" si="2"/>
-        <v>4.671875</v>
+        <v>10.100375</v>
       </c>
       <c r="Q61" s="21">
         <f t="shared" si="3"/>
-        <v>60.328125</v>
+        <v>114.899625</v>
       </c>
       <c r="R61" s="22">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>-56</v>
       </c>
       <c r="S61" s="21">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="T61" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-45</v>
+        <v>47</v>
       </c>
       <c r="U61" s="24">
         <v>1.2842274814527748</v>
@@ -6363,16 +6329,16 @@
         <v>25</v>
       </c>
       <c r="I62" s="27">
-        <v>45566</v>
+        <v>45775</v>
       </c>
       <c r="J62" s="28">
-        <v>45647</v>
+        <v>45865</v>
       </c>
       <c r="K62" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L62" s="18">
-        <v>0.95960000000000001</v>
+        <v>0.97268600000000005</v>
       </c>
       <c r="M62" s="19" t="s">
         <v>26</v>
@@ -6382,27 +6348,27 @@
       </c>
       <c r="O62" s="21">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="P62" s="21">
         <f t="shared" si="2"/>
-        <v>77.727599999999995</v>
+        <v>87.541740000000004</v>
       </c>
       <c r="Q62" s="21">
         <f t="shared" si="3"/>
-        <v>3.2724000000000046</v>
+        <v>2.4582599999999957</v>
       </c>
       <c r="R62" s="22">
         <f t="shared" si="4"/>
-        <v>169</v>
+        <v>-28</v>
       </c>
       <c r="S62" s="21">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="T62" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-175</v>
+        <v>19</v>
       </c>
       <c r="U62" s="24">
         <v>6.1841913050091657</v>
@@ -6441,7 +6407,7 @@
         <v>45942</v>
       </c>
       <c r="K63" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L63" s="18">
         <v>0</v>
@@ -6466,7 +6432,7 @@
       </c>
       <c r="R63" s="22">
         <f t="shared" si="4"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S63" s="21">
         <f t="shared" si="5"/>
@@ -6474,7 +6440,7 @@
       </c>
       <c r="T63" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U63" s="24">
         <v>0</v>
@@ -6507,16 +6473,16 @@
         <v>25</v>
       </c>
       <c r="I64" s="27">
-        <v>45628</v>
+        <v>45782</v>
       </c>
       <c r="J64" s="28">
-        <v>45765</v>
+        <v>45851</v>
       </c>
       <c r="K64" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L64" s="18">
-        <v>0.64439999999999997</v>
+        <v>0.81789800000000001</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>26</v>
@@ -6526,27 +6492,27 @@
       </c>
       <c r="O64" s="21">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="P64" s="21">
         <f t="shared" si="2"/>
-        <v>88.282799999999995</v>
+        <v>56.434961999999999</v>
       </c>
       <c r="Q64" s="21">
         <f t="shared" si="3"/>
-        <v>48.717200000000005</v>
+        <v>12.565038000000001</v>
       </c>
       <c r="R64" s="22">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>-14</v>
       </c>
       <c r="S64" s="21">
         <f t="shared" si="5"/>
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="T64" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-57</v>
+        <v>5</v>
       </c>
       <c r="U64" s="24">
         <v>0.94074024135300072</v>
@@ -6579,16 +6545,16 @@
         <v>25</v>
       </c>
       <c r="I65" s="27">
-        <v>45566</v>
+        <v>45775</v>
       </c>
       <c r="J65" s="28">
-        <v>45737</v>
+        <v>45886</v>
       </c>
       <c r="K65" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L65" s="18">
-        <v>0.62329999999999997</v>
+        <v>0.82937099999999997</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>26</v>
@@ -6598,27 +6564,27 @@
       </c>
       <c r="O65" s="21">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="P65" s="21">
         <f t="shared" si="2"/>
-        <v>106.5843</v>
+        <v>92.060181</v>
       </c>
       <c r="Q65" s="21">
         <f t="shared" si="3"/>
-        <v>64.415700000000001</v>
+        <v>18.939819</v>
       </c>
       <c r="R65" s="22">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>-49</v>
       </c>
       <c r="S65" s="21">
         <f t="shared" si="5"/>
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="T65" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-85</v>
+        <v>40</v>
       </c>
       <c r="U65" s="24">
         <v>1.2317038245452467</v>
@@ -6654,10 +6620,10 @@
         <v>45593</v>
       </c>
       <c r="J66" s="28">
-        <v>45708</v>
+        <v>45879</v>
       </c>
       <c r="K66" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L66" s="18">
         <v>0.15859999999999999</v>
@@ -6674,23 +6640,23 @@
       </c>
       <c r="P66" s="21">
         <f t="shared" si="2"/>
-        <v>18.238999999999997</v>
+        <v>45.3596</v>
       </c>
       <c r="Q66" s="21">
         <f t="shared" si="3"/>
-        <v>96.760999999999996</v>
+        <v>240.6404</v>
       </c>
       <c r="R66" s="22">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>-42</v>
       </c>
       <c r="S66" s="21">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="T66" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-114</v>
+        <v>33</v>
       </c>
       <c r="U66" s="24">
         <v>4.341217820948339</v>
@@ -6720,19 +6686,19 @@
         <v xml:space="preserve">PROJECT 1 BPEKERJAAN STRUKTURGAZEBOO </v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I67" s="27">
-        <v>45663</v>
+        <v>45810</v>
       </c>
       <c r="J67" s="28">
-        <v>45683</v>
+        <v>45830</v>
       </c>
       <c r="K67" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L67" s="18">
-        <v>0.16839999999999999</v>
+        <v>0.87442399999999998</v>
       </c>
       <c r="M67" s="19" t="s">
         <v>40</v>
@@ -6742,19 +6708,19 @@
       </c>
       <c r="O67" s="21">
         <f t="shared" ref="O67:O127" si="7">IF(ISBLANK(I67),0,I67-N67)</f>
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="P67" s="21">
         <f t="shared" ref="P67:P127" si="8">$L67*$S67</f>
-        <v>3.3679999999999999</v>
+        <v>17.488479999999999</v>
       </c>
       <c r="Q67" s="21">
         <f t="shared" ref="Q67:Q127" si="9">S67-P67</f>
-        <v>16.632000000000001</v>
+        <v>2.5115200000000009</v>
       </c>
       <c r="R67" s="22">
         <f t="shared" ref="R67:R127" si="10">IF(ISBLANK(K67),0,(K67-I67)-S67)</f>
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="S67" s="21">
         <f t="shared" ref="S67:S127" si="11">IF(ISBLANK(J67),0,J67-I67)</f>
@@ -6762,7 +6728,7 @@
       </c>
       <c r="T67" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>-17</v>
       </c>
       <c r="U67" s="24">
         <v>1.2874256064363331E-2</v>
@@ -6795,13 +6761,13 @@
         <v>116</v>
       </c>
       <c r="I68" s="27">
-        <v>45747</v>
+        <v>45762</v>
       </c>
       <c r="J68" s="28">
         <v>45794</v>
       </c>
       <c r="K68" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L68" s="18">
         <v>0.1241</v>
@@ -6814,27 +6780,27 @@
       </c>
       <c r="O68" s="21">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="P68" s="21">
         <f t="shared" si="8"/>
-        <v>5.8327</v>
+        <v>3.9712000000000001</v>
       </c>
       <c r="Q68" s="21">
         <f t="shared" si="9"/>
-        <v>41.167299999999997</v>
+        <v>28.0288</v>
       </c>
       <c r="R68" s="22">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="S68" s="21">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="T68" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-28</v>
+        <v>-53</v>
       </c>
       <c r="U68" s="24">
         <v>0.87755848995820385</v>
@@ -6864,19 +6830,19 @@
         <v>PROJECT 1 BPEKERJAAN STRUKTURWEIGHT HOUSE</v>
       </c>
       <c r="H69" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I69" s="27">
-        <v>45691</v>
+        <v>45782</v>
       </c>
       <c r="J69" s="28">
-        <v>45786</v>
+        <v>45851</v>
       </c>
       <c r="K69" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L69" s="18">
-        <v>0.46579999999999999</v>
+        <v>0.627965</v>
       </c>
       <c r="M69" s="19" t="s">
         <v>26</v>
@@ -6886,27 +6852,27 @@
       </c>
       <c r="O69" s="21">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="P69" s="21">
         <f t="shared" si="8"/>
-        <v>44.250999999999998</v>
+        <v>43.329585000000002</v>
       </c>
       <c r="Q69" s="21">
         <f t="shared" si="9"/>
-        <v>50.749000000000002</v>
+        <v>25.670414999999998</v>
       </c>
       <c r="R69" s="22">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>-14</v>
       </c>
       <c r="S69" s="21">
         <f t="shared" si="11"/>
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="T69" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-36</v>
+        <v>5</v>
       </c>
       <c r="U69" s="24">
         <v>5.6463899562994637</v>
@@ -6939,16 +6905,16 @@
         <v>25</v>
       </c>
       <c r="I70" s="27">
-        <v>45566</v>
+        <v>45762</v>
       </c>
       <c r="J70" s="28">
-        <v>45652</v>
+        <v>45858</v>
       </c>
       <c r="K70" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L70" s="18">
-        <v>0.78080000000000005</v>
+        <v>0.998946</v>
       </c>
       <c r="M70" s="19" t="s">
         <v>26</v>
@@ -6958,27 +6924,27 @@
       </c>
       <c r="O70" s="21">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="P70" s="21">
         <f t="shared" si="8"/>
-        <v>67.148800000000008</v>
+        <v>95.898815999999997</v>
       </c>
       <c r="Q70" s="21">
         <f t="shared" si="9"/>
-        <v>18.851199999999992</v>
+        <v>0.10118400000000349</v>
       </c>
       <c r="R70" s="22">
         <f t="shared" si="10"/>
-        <v>164</v>
+        <v>-21</v>
       </c>
       <c r="S70" s="21">
         <f t="shared" si="11"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="T70" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-170</v>
+        <v>12</v>
       </c>
       <c r="U70" s="24">
         <v>3.3921463524873796</v>
@@ -7008,19 +6974,19 @@
         <v>PROJECT 1 BPEKERJAAN STRUKTURTPS</v>
       </c>
       <c r="H71" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I71" s="27">
-        <v>45740</v>
+        <v>45782</v>
       </c>
       <c r="J71" s="28">
-        <v>45759</v>
+        <v>45879</v>
       </c>
       <c r="K71" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L71" s="18">
-        <v>0.1244</v>
+        <v>0.39142199999999999</v>
       </c>
       <c r="M71" s="19" t="s">
         <v>26</v>
@@ -7030,27 +6996,27 @@
       </c>
       <c r="O71" s="21">
         <f t="shared" si="7"/>
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="P71" s="21">
         <f t="shared" si="8"/>
-        <v>2.3635999999999999</v>
+        <v>37.967934</v>
       </c>
       <c r="Q71" s="21">
         <f t="shared" si="9"/>
-        <v>16.636400000000002</v>
+        <v>59.032066</v>
       </c>
       <c r="R71" s="22">
         <f t="shared" si="10"/>
-        <v>57</v>
+        <v>-42</v>
       </c>
       <c r="S71" s="21">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="T71" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-63</v>
+        <v>33</v>
       </c>
       <c r="U71" s="24">
         <v>1.1565364385446064</v>
@@ -7083,16 +7049,16 @@
         <v>116</v>
       </c>
       <c r="I72" s="27">
-        <v>45621</v>
+        <v>45775</v>
       </c>
       <c r="J72" s="28">
-        <v>45657</v>
+        <v>45891</v>
       </c>
       <c r="K72" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L72" s="18">
-        <v>0</v>
+        <v>3.225E-3</v>
       </c>
       <c r="M72" s="19" t="s">
         <v>26</v>
@@ -7102,27 +7068,27 @@
       </c>
       <c r="O72" s="21">
         <f t="shared" si="7"/>
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="P72" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="Q72" s="21">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>115.6259</v>
       </c>
       <c r="R72" s="22">
         <f t="shared" si="10"/>
-        <v>159</v>
+        <v>-54</v>
       </c>
       <c r="S72" s="21">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="T72" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-165</v>
+        <v>45</v>
       </c>
       <c r="U72" s="24">
         <v>0.35948495436649136</v>
@@ -7158,10 +7124,10 @@
         <v>45516</v>
       </c>
       <c r="J73" s="28">
-        <v>45942</v>
+        <v>45851</v>
       </c>
       <c r="K73" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L73" s="18">
         <v>0</v>
@@ -7182,19 +7148,19 @@
       </c>
       <c r="Q73" s="21">
         <f t="shared" si="9"/>
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="R73" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-14</v>
       </c>
       <c r="S73" s="21">
         <f t="shared" si="11"/>
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="T73" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="U73" s="24">
         <v>0</v>
@@ -7233,7 +7199,7 @@
         <v>45942</v>
       </c>
       <c r="K74" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L74" s="18">
         <v>0</v>
@@ -7258,7 +7224,7 @@
       </c>
       <c r="R74" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S74" s="21">
         <f t="shared" si="11"/>
@@ -7266,7 +7232,7 @@
       </c>
       <c r="T74" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U74" s="24">
         <v>0</v>
@@ -7299,16 +7265,16 @@
         <v>116</v>
       </c>
       <c r="I75" s="27">
-        <v>45656</v>
+        <v>45762</v>
       </c>
       <c r="J75" s="28">
-        <v>45788</v>
+        <v>45900</v>
       </c>
       <c r="K75" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L75" s="18">
-        <v>0.115</v>
+        <v>0.115463</v>
       </c>
       <c r="M75" s="19" t="s">
         <v>40</v>
@@ -7318,27 +7284,27 @@
       </c>
       <c r="O75" s="21">
         <f t="shared" si="7"/>
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="P75" s="21">
         <f t="shared" si="8"/>
-        <v>15.180000000000001</v>
+        <v>15.933893999999999</v>
       </c>
       <c r="Q75" s="21">
         <f t="shared" si="9"/>
-        <v>116.82</v>
+        <v>122.066106</v>
       </c>
       <c r="R75" s="22">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>-63</v>
       </c>
       <c r="S75" s="21">
         <f t="shared" si="11"/>
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="T75" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>54</v>
       </c>
       <c r="U75" s="24">
         <v>7.3681118933140155</v>
@@ -7371,16 +7337,16 @@
         <v>116</v>
       </c>
       <c r="I76" s="27">
-        <v>45761</v>
+        <v>45859</v>
       </c>
       <c r="J76" s="28">
-        <v>45795</v>
+        <v>45893</v>
       </c>
       <c r="K76" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L76" s="18">
-        <v>8.1699999999999995E-2</v>
+        <v>0.23555300000000001</v>
       </c>
       <c r="M76" s="19" t="s">
         <v>42</v>
@@ -7390,19 +7356,19 @@
       </c>
       <c r="O76" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="P76" s="21">
         <f t="shared" si="8"/>
-        <v>2.7778</v>
+        <v>8.0088020000000011</v>
       </c>
       <c r="Q76" s="21">
         <f t="shared" si="9"/>
-        <v>31.222200000000001</v>
+        <v>25.991197999999997</v>
       </c>
       <c r="R76" s="22">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>-56</v>
       </c>
       <c r="S76" s="21">
         <f t="shared" si="11"/>
@@ -7410,7 +7376,7 @@
       </c>
       <c r="T76" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-27</v>
+        <v>47</v>
       </c>
       <c r="U76" s="24">
         <v>1.9262225609604624</v>
@@ -7449,7 +7415,7 @@
         <v>45942</v>
       </c>
       <c r="K77" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L77" s="18">
         <v>0</v>
@@ -7474,7 +7440,7 @@
       </c>
       <c r="R77" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S77" s="21">
         <f t="shared" si="11"/>
@@ -7482,7 +7448,7 @@
       </c>
       <c r="T77" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U77" s="24">
         <v>0</v>
@@ -7515,16 +7481,16 @@
         <v>116</v>
       </c>
       <c r="I78" s="27">
-        <v>45712</v>
+        <v>45796</v>
       </c>
       <c r="J78" s="28">
-        <v>45745</v>
+        <v>45814</v>
       </c>
       <c r="K78" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L78" s="18">
-        <v>0.14410000000000001</v>
+        <v>0.16509299999999999</v>
       </c>
       <c r="M78" s="19" t="s">
         <v>40</v>
@@ -7534,27 +7500,27 @@
       </c>
       <c r="O78" s="21">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="P78" s="21">
         <f t="shared" si="8"/>
-        <v>4.7553000000000001</v>
+        <v>2.9716739999999997</v>
       </c>
       <c r="Q78" s="21">
         <f t="shared" si="9"/>
-        <v>28.244700000000002</v>
+        <v>15.028326</v>
       </c>
       <c r="R78" s="22">
         <f t="shared" si="10"/>
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="S78" s="21">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="T78" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-77</v>
+        <v>-33</v>
       </c>
       <c r="U78" s="24">
         <v>2.6947696149272917</v>
@@ -7587,16 +7553,16 @@
         <v>116</v>
       </c>
       <c r="I79" s="27">
-        <v>45642</v>
+        <v>45838</v>
       </c>
       <c r="J79" s="28">
-        <v>45665</v>
+        <v>45907</v>
       </c>
       <c r="K79" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L79" s="18">
-        <v>8.2199999999999995E-2</v>
+        <v>8.2214999999999996E-2</v>
       </c>
       <c r="M79" s="19" t="s">
         <v>40</v>
@@ -7606,27 +7572,27 @@
       </c>
       <c r="O79" s="21">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="P79" s="21">
         <f t="shared" si="8"/>
-        <v>1.8905999999999998</v>
+        <v>5.6728350000000001</v>
       </c>
       <c r="Q79" s="21">
         <f t="shared" si="9"/>
-        <v>21.109400000000001</v>
+        <v>63.327165000000001</v>
       </c>
       <c r="R79" s="22">
         <f t="shared" si="10"/>
-        <v>151</v>
+        <v>-70</v>
       </c>
       <c r="S79" s="21">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="T79" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-157</v>
+        <v>61</v>
       </c>
       <c r="U79" s="24">
         <v>7.1455552805644906</v>
@@ -7659,16 +7625,16 @@
         <v>117</v>
       </c>
       <c r="I80" s="27">
-        <v>45642</v>
+        <v>45824</v>
       </c>
       <c r="J80" s="28">
-        <v>45655</v>
+        <v>45886</v>
       </c>
       <c r="K80" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L80" s="18">
-        <v>0.39400000000000002</v>
+        <v>0.46292</v>
       </c>
       <c r="M80" s="19" t="s">
         <v>26</v>
@@ -7678,27 +7644,27 @@
       </c>
       <c r="O80" s="21">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="P80" s="21">
         <f t="shared" si="8"/>
-        <v>5.1219999999999999</v>
+        <v>28.701039999999999</v>
       </c>
       <c r="Q80" s="21">
         <f t="shared" si="9"/>
-        <v>7.8780000000000001</v>
+        <v>33.298960000000001</v>
       </c>
       <c r="R80" s="22">
         <f t="shared" si="10"/>
-        <v>161</v>
+        <v>-49</v>
       </c>
       <c r="S80" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="T80" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-167</v>
+        <v>40</v>
       </c>
       <c r="U80" s="24">
         <v>2.1250737260073151</v>
@@ -7731,16 +7697,16 @@
         <v>25</v>
       </c>
       <c r="I81" s="27">
-        <v>45600</v>
+        <v>45831</v>
       </c>
       <c r="J81" s="28">
-        <v>45620</v>
+        <v>45514</v>
       </c>
       <c r="K81" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L81" s="18">
-        <v>0.63170000000000004</v>
+        <v>0.64031800000000005</v>
       </c>
       <c r="M81" s="19" t="s">
         <v>40</v>
@@ -7750,27 +7716,27 @@
       </c>
       <c r="O81" s="21">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>326</v>
       </c>
       <c r="P81" s="21">
         <f t="shared" si="8"/>
-        <v>12.634</v>
+        <v>-202.98080600000003</v>
       </c>
       <c r="Q81" s="21">
         <f t="shared" si="9"/>
-        <v>7.3659999999999997</v>
+        <v>-114.01919399999997</v>
       </c>
       <c r="R81" s="22">
         <f t="shared" si="10"/>
-        <v>196</v>
+        <v>323</v>
       </c>
       <c r="S81" s="21">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>-317</v>
       </c>
       <c r="T81" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-202</v>
+        <v>-333</v>
       </c>
       <c r="U81" s="24">
         <v>2.2141421850391501</v>
@@ -7803,13 +7769,13 @@
         <v>116</v>
       </c>
       <c r="I82" s="27">
-        <v>45614</v>
+        <v>45845</v>
       </c>
       <c r="J82" s="28">
-        <v>45634</v>
+        <v>45930</v>
       </c>
       <c r="K82" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L82" s="18">
         <v>4.0500000000000001E-2</v>
@@ -7822,27 +7788,27 @@
       </c>
       <c r="O82" s="21">
         <f t="shared" si="7"/>
-        <v>109</v>
+        <v>340</v>
       </c>
       <c r="P82" s="21">
         <f t="shared" si="8"/>
-        <v>0.81</v>
+        <v>3.4424999999999999</v>
       </c>
       <c r="Q82" s="21">
         <f t="shared" si="9"/>
-        <v>19.190000000000001</v>
+        <v>81.557500000000005</v>
       </c>
       <c r="R82" s="22">
         <f t="shared" si="10"/>
-        <v>182</v>
+        <v>-93</v>
       </c>
       <c r="S82" s="21">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="T82" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-188</v>
+        <v>84</v>
       </c>
       <c r="U82" s="24">
         <v>2.1434231234710972</v>
@@ -7881,7 +7847,7 @@
         <v>45942</v>
       </c>
       <c r="K83" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L83" s="18">
         <v>0</v>
@@ -7906,7 +7872,7 @@
       </c>
       <c r="R83" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S83" s="21">
         <f t="shared" si="11"/>
@@ -7914,7 +7880,7 @@
       </c>
       <c r="T83" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U83" s="24">
         <v>0</v>
@@ -7947,16 +7913,16 @@
         <v>117</v>
       </c>
       <c r="I84" s="27">
-        <v>45684</v>
+        <v>45824</v>
       </c>
       <c r="J84" s="28">
-        <v>45345</v>
+        <v>45872</v>
       </c>
       <c r="K84" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L84" s="18">
-        <v>0.4143</v>
+        <v>0.43954599999999999</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>26</v>
@@ -7966,27 +7932,27 @@
       </c>
       <c r="O84" s="21">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="P84" s="21">
         <f t="shared" si="8"/>
-        <v>-140.4477</v>
+        <v>21.098208</v>
       </c>
       <c r="Q84" s="21">
         <f t="shared" si="9"/>
-        <v>-198.5523</v>
+        <v>26.901792</v>
       </c>
       <c r="R84" s="22">
         <f t="shared" si="10"/>
-        <v>471</v>
+        <v>-35</v>
       </c>
       <c r="S84" s="21">
         <f t="shared" si="11"/>
-        <v>-339</v>
+        <v>48</v>
       </c>
       <c r="T84" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-477</v>
+        <v>26</v>
       </c>
       <c r="U84" s="24">
         <v>4.2091892986185098</v>
@@ -8019,13 +7985,13 @@
         <v>116</v>
       </c>
       <c r="I85" s="27">
-        <v>45761</v>
+        <v>45817</v>
       </c>
       <c r="J85" s="28">
-        <v>45788</v>
+        <v>45865</v>
       </c>
       <c r="K85" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L85" s="18">
         <v>0.21690000000000001</v>
@@ -8038,27 +8004,27 @@
       </c>
       <c r="O85" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="P85" s="21">
         <f t="shared" si="8"/>
-        <v>5.8563000000000001</v>
+        <v>10.411200000000001</v>
       </c>
       <c r="Q85" s="21">
         <f t="shared" si="9"/>
-        <v>21.143699999999999</v>
+        <v>37.588799999999999</v>
       </c>
       <c r="R85" s="22">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>-28</v>
       </c>
       <c r="S85" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="T85" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>19</v>
       </c>
       <c r="U85" s="24">
         <v>0.67906690555318538</v>
@@ -8091,13 +8057,13 @@
         <v>116</v>
       </c>
       <c r="I86" s="27">
-        <v>45628</v>
+        <v>45831</v>
       </c>
       <c r="J86" s="28">
-        <v>45634</v>
+        <v>45844</v>
       </c>
       <c r="K86" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L86" s="18">
         <v>0</v>
@@ -8110,7 +8076,7 @@
       </c>
       <c r="O86" s="21">
         <f t="shared" si="7"/>
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="P86" s="21">
         <f t="shared" si="8"/>
@@ -8118,19 +8084,19 @@
       </c>
       <c r="Q86" s="21">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R86" s="22">
         <f t="shared" si="10"/>
-        <v>182</v>
+        <v>-7</v>
       </c>
       <c r="S86" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T86" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-188</v>
+        <v>-3</v>
       </c>
       <c r="U86" s="24">
         <v>0.3705846265159719</v>
@@ -8163,13 +8129,13 @@
         <v>117</v>
       </c>
       <c r="I87" s="27">
-        <v>45670</v>
+        <v>45796</v>
       </c>
       <c r="J87" s="28">
-        <v>45697</v>
+        <v>45865</v>
       </c>
       <c r="K87" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L87" s="18">
         <v>0.58789999999999998</v>
@@ -8182,27 +8148,27 @@
       </c>
       <c r="O87" s="21">
         <f t="shared" si="7"/>
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="P87" s="21">
         <f t="shared" si="8"/>
-        <v>15.873299999999999</v>
+        <v>40.565100000000001</v>
       </c>
       <c r="Q87" s="21">
         <f t="shared" si="9"/>
-        <v>11.126700000000001</v>
+        <v>28.434899999999999</v>
       </c>
       <c r="R87" s="22">
         <f t="shared" si="10"/>
-        <v>119</v>
+        <v>-28</v>
       </c>
       <c r="S87" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="T87" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>19</v>
       </c>
       <c r="U87" s="24">
         <v>0.46782862216660642</v>
@@ -8235,16 +8201,16 @@
         <v>117</v>
       </c>
       <c r="I88" s="27">
-        <v>45586</v>
+        <v>45845</v>
       </c>
       <c r="J88" s="28">
-        <v>45613</v>
+        <v>45808</v>
       </c>
       <c r="K88" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L88" s="18">
-        <v>0.4425</v>
+        <v>0.46493800000000002</v>
       </c>
       <c r="M88" s="19" t="s">
         <v>26</v>
@@ -8254,27 +8220,27 @@
       </c>
       <c r="O88" s="21">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="P88" s="21">
         <f t="shared" si="8"/>
-        <v>11.9475</v>
+        <v>-17.202705999999999</v>
       </c>
       <c r="Q88" s="21">
         <f t="shared" si="9"/>
-        <v>15.0525</v>
+        <v>-19.797294000000001</v>
       </c>
       <c r="R88" s="22">
         <f t="shared" si="10"/>
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="S88" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>-37</v>
       </c>
       <c r="T88" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-209</v>
+        <v>-39</v>
       </c>
       <c r="U88" s="24">
         <v>2.1434231234710972</v>
@@ -8313,7 +8279,7 @@
         <v>45942</v>
       </c>
       <c r="K89" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L89" s="18">
         <v>1</v>
@@ -8338,7 +8304,7 @@
       </c>
       <c r="R89" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S89" s="21">
         <f t="shared" si="11"/>
@@ -8346,7 +8312,7 @@
       </c>
       <c r="T89" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U89" s="24">
         <v>0</v>
@@ -8379,13 +8345,13 @@
         <v>116</v>
       </c>
       <c r="I90" s="27">
-        <v>45677</v>
+        <v>45838</v>
       </c>
       <c r="J90" s="28">
-        <v>45704</v>
+        <v>45900</v>
       </c>
       <c r="K90" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L90" s="18">
         <v>0.16259999999999999</v>
@@ -8398,27 +8364,27 @@
       </c>
       <c r="O90" s="21">
         <f t="shared" si="7"/>
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="P90" s="21">
         <f t="shared" si="8"/>
-        <v>4.3902000000000001</v>
+        <v>10.081199999999999</v>
       </c>
       <c r="Q90" s="21">
         <f t="shared" si="9"/>
-        <v>22.6098</v>
+        <v>51.918800000000005</v>
       </c>
       <c r="R90" s="22">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>-63</v>
       </c>
       <c r="S90" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="T90" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>54</v>
       </c>
       <c r="U90" s="24">
         <v>0.66829826225735345</v>
@@ -8451,13 +8417,13 @@
         <v>116</v>
       </c>
       <c r="I91" s="27">
-        <v>45579</v>
+        <v>45824</v>
       </c>
       <c r="J91" s="28">
-        <v>45606</v>
+        <v>45858</v>
       </c>
       <c r="K91" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L91" s="18">
         <v>0</v>
@@ -8470,7 +8436,7 @@
       </c>
       <c r="O91" s="21">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="P91" s="21">
         <f t="shared" si="8"/>
@@ -8478,19 +8444,19 @@
       </c>
       <c r="Q91" s="21">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="R91" s="22">
         <f t="shared" si="10"/>
-        <v>210</v>
+        <v>-21</v>
       </c>
       <c r="S91" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="T91" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-216</v>
+        <v>12</v>
       </c>
       <c r="U91" s="24">
         <v>0.45089754003550009</v>
@@ -8523,13 +8489,13 @@
         <v>116</v>
       </c>
       <c r="I92" s="27">
-        <v>45593</v>
+        <v>45810</v>
       </c>
       <c r="J92" s="28">
-        <v>45620</v>
+        <v>45851</v>
       </c>
       <c r="K92" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L92" s="18">
         <v>8.1199999999999994E-2</v>
@@ -8542,27 +8508,27 @@
       </c>
       <c r="O92" s="21">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="P92" s="21">
         <f t="shared" si="8"/>
-        <v>2.1923999999999997</v>
+        <v>3.3291999999999997</v>
       </c>
       <c r="Q92" s="21">
         <f t="shared" si="9"/>
-        <v>24.807600000000001</v>
+        <v>37.6708</v>
       </c>
       <c r="R92" s="22">
         <f t="shared" si="10"/>
-        <v>196</v>
+        <v>-14</v>
       </c>
       <c r="S92" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T92" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-202</v>
+        <v>5</v>
       </c>
       <c r="U92" s="24">
         <v>0.47544300629915759</v>
@@ -8601,7 +8567,7 @@
         <v>45942</v>
       </c>
       <c r="K93" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L93" s="18">
         <v>0</v>
@@ -8626,7 +8592,7 @@
       </c>
       <c r="R93" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S93" s="21">
         <f t="shared" si="11"/>
@@ -8634,7 +8600,7 @@
       </c>
       <c r="T93" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U93" s="24">
         <v>0</v>
@@ -8667,13 +8633,13 @@
         <v>116</v>
       </c>
       <c r="I94" s="27">
-        <v>45642</v>
+        <v>45866</v>
       </c>
       <c r="J94" s="28">
-        <v>45697</v>
+        <v>45930</v>
       </c>
       <c r="K94" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L94" s="18">
         <v>9.1399999999999995E-2</v>
@@ -8686,27 +8652,27 @@
       </c>
       <c r="O94" s="21">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="P94" s="21">
         <f t="shared" si="8"/>
-        <v>5.0270000000000001</v>
+        <v>5.8495999999999997</v>
       </c>
       <c r="Q94" s="21">
         <f t="shared" si="9"/>
-        <v>49.972999999999999</v>
+        <v>58.150399999999998</v>
       </c>
       <c r="R94" s="22">
         <f t="shared" si="10"/>
-        <v>119</v>
+        <v>-93</v>
       </c>
       <c r="S94" s="21">
         <f t="shared" si="11"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T94" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-125</v>
+        <v>84</v>
       </c>
       <c r="U94" s="24">
         <v>7.4012273158472057</v>
@@ -8745,7 +8711,7 @@
         <v>45942</v>
       </c>
       <c r="K95" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L95" s="18">
         <v>0</v>
@@ -8770,7 +8736,7 @@
       </c>
       <c r="R95" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S95" s="21">
         <f t="shared" si="11"/>
@@ -8778,7 +8744,7 @@
       </c>
       <c r="T95" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U95" s="24">
         <v>0</v>
@@ -8811,13 +8777,13 @@
         <v>116</v>
       </c>
       <c r="I96" s="27">
-        <v>45782</v>
+        <v>45866</v>
       </c>
       <c r="J96" s="28">
-        <v>45788</v>
+        <v>45907</v>
       </c>
       <c r="K96" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L96" s="18">
         <v>0</v>
@@ -8830,7 +8796,7 @@
       </c>
       <c r="O96" s="21">
         <f t="shared" si="7"/>
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="P96" s="21">
         <f t="shared" si="8"/>
@@ -8838,19 +8804,19 @@
       </c>
       <c r="Q96" s="21">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R96" s="22">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>-70</v>
       </c>
       <c r="S96" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="T96" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>61</v>
       </c>
       <c r="U96" s="24">
         <v>0.12529658962134113</v>
@@ -8889,7 +8855,7 @@
         <v>45942</v>
       </c>
       <c r="K97" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L97" s="18">
         <v>0</v>
@@ -8914,7 +8880,7 @@
       </c>
       <c r="R97" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S97" s="21">
         <f t="shared" si="11"/>
@@ -8922,7 +8888,7 @@
       </c>
       <c r="T97" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U97" s="24">
         <v>0</v>
@@ -8955,13 +8921,13 @@
         <v>116</v>
       </c>
       <c r="I98" s="27">
-        <v>45579</v>
+        <v>45845</v>
       </c>
       <c r="J98" s="28">
-        <v>45592</v>
+        <v>45865</v>
       </c>
       <c r="K98" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L98" s="18">
         <v>0</v>
@@ -8974,7 +8940,7 @@
       </c>
       <c r="O98" s="21">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="P98" s="21">
         <f t="shared" si="8"/>
@@ -8982,19 +8948,19 @@
       </c>
       <c r="Q98" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R98" s="22">
         <f t="shared" si="10"/>
-        <v>224</v>
+        <v>-28</v>
       </c>
       <c r="S98" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T98" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-230</v>
+        <v>19</v>
       </c>
       <c r="U98" s="24">
         <v>0.53563667137898285</v>
@@ -9027,13 +8993,13 @@
         <v>116</v>
       </c>
       <c r="I99" s="27">
-        <v>45712</v>
+        <v>45852</v>
       </c>
       <c r="J99" s="28">
-        <v>45746</v>
+        <v>45872</v>
       </c>
       <c r="K99" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L99" s="18">
         <v>0</v>
@@ -9046,7 +9012,7 @@
       </c>
       <c r="O99" s="21">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="P99" s="21">
         <f t="shared" si="8"/>
@@ -9054,19 +9020,19 @@
       </c>
       <c r="Q99" s="21">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R99" s="22">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>-35</v>
       </c>
       <c r="S99" s="21">
         <f t="shared" si="11"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="T99" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>26</v>
       </c>
       <c r="U99" s="24">
         <v>0.31365570942757215</v>
@@ -9099,13 +9065,13 @@
         <v>116</v>
       </c>
       <c r="I100" s="27">
-        <v>45747</v>
+        <v>45866</v>
       </c>
       <c r="J100" s="28">
-        <v>45746</v>
+        <v>45886</v>
       </c>
       <c r="K100" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L100" s="18">
         <v>0</v>
@@ -9118,7 +9084,7 @@
       </c>
       <c r="O100" s="21">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="P100" s="21">
         <f t="shared" si="8"/>
@@ -9126,19 +9092,19 @@
       </c>
       <c r="Q100" s="21">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="R100" s="22">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>-49</v>
       </c>
       <c r="S100" s="21">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="T100" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>40</v>
       </c>
       <c r="U100" s="24">
         <v>0.1502798023901277</v>
@@ -9177,7 +9143,7 @@
         <v>45942</v>
       </c>
       <c r="K101" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L101" s="18">
         <v>0</v>
@@ -9202,7 +9168,7 @@
       </c>
       <c r="R101" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S101" s="21">
         <f t="shared" si="11"/>
@@ -9210,7 +9176,7 @@
       </c>
       <c r="T101" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U101" s="24">
         <v>0</v>
@@ -9243,13 +9209,13 @@
         <v>116</v>
       </c>
       <c r="I102" s="27">
-        <v>45691</v>
+        <v>45831</v>
       </c>
       <c r="J102" s="28">
-        <v>45704</v>
+        <v>45844</v>
       </c>
       <c r="K102" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L102" s="18">
         <v>0</v>
@@ -9262,7 +9228,7 @@
       </c>
       <c r="O102" s="21">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="P102" s="21">
         <f t="shared" si="8"/>
@@ -9274,7 +9240,7 @@
       </c>
       <c r="R102" s="22">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>-7</v>
       </c>
       <c r="S102" s="21">
         <f t="shared" si="11"/>
@@ -9282,7 +9248,7 @@
       </c>
       <c r="T102" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>-3</v>
       </c>
       <c r="U102" s="24">
         <v>0.1640586615913901</v>
@@ -9315,13 +9281,13 @@
         <v>116</v>
       </c>
       <c r="I103" s="27">
-        <v>45635</v>
+        <v>45852</v>
       </c>
       <c r="J103" s="28">
-        <v>45648</v>
+        <v>45858</v>
       </c>
       <c r="K103" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L103" s="18">
         <v>0</v>
@@ -9334,7 +9300,7 @@
       </c>
       <c r="O103" s="21">
         <f t="shared" si="7"/>
-        <v>130</v>
+        <v>347</v>
       </c>
       <c r="P103" s="21">
         <f t="shared" si="8"/>
@@ -9342,19 +9308,19 @@
       </c>
       <c r="Q103" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="R103" s="22">
         <f t="shared" si="10"/>
-        <v>168</v>
+        <v>-21</v>
       </c>
       <c r="S103" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T103" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-174</v>
+        <v>12</v>
       </c>
       <c r="U103" s="24">
         <v>0.1502798023901277</v>
@@ -9393,7 +9359,7 @@
         <v>45942</v>
       </c>
       <c r="K104" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L104" s="18">
         <v>0</v>
@@ -9418,7 +9384,7 @@
       </c>
       <c r="R104" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S104" s="21">
         <f t="shared" si="11"/>
@@ -9426,7 +9392,7 @@
       </c>
       <c r="T104" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U104" s="24">
         <v>0</v>
@@ -9459,13 +9425,13 @@
         <v>116</v>
       </c>
       <c r="I105" s="27">
-        <v>45712</v>
+        <v>45803</v>
       </c>
       <c r="J105" s="28">
-        <v>45726</v>
+        <v>45816</v>
       </c>
       <c r="K105" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L105" s="18">
         <v>0</v>
@@ -9478,7 +9444,7 @@
       </c>
       <c r="O105" s="21">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="P105" s="21">
         <f t="shared" si="8"/>
@@ -9486,19 +9452,19 @@
       </c>
       <c r="Q105" s="21">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R105" s="22">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="S105" s="21">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T105" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-96</v>
+        <v>-31</v>
       </c>
       <c r="U105" s="24">
         <v>0.41311075421685678</v>
@@ -9531,13 +9497,13 @@
         <v>116</v>
       </c>
       <c r="I106" s="27">
-        <v>45712</v>
+        <v>45803</v>
       </c>
       <c r="J106" s="28">
-        <v>45726</v>
+        <v>45816</v>
       </c>
       <c r="K106" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L106" s="18">
         <v>0</v>
@@ -9550,7 +9516,7 @@
       </c>
       <c r="O106" s="21">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="P106" s="21">
         <f t="shared" si="8"/>
@@ -9558,19 +9524,19 @@
       </c>
       <c r="Q106" s="21">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R106" s="22">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="S106" s="21">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T106" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-96</v>
+        <v>-31</v>
       </c>
       <c r="U106" s="24">
         <v>0.41311075421685678</v>
@@ -9609,7 +9575,7 @@
         <v>45942</v>
       </c>
       <c r="K107" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L107" s="18">
         <v>0</v>
@@ -9634,7 +9600,7 @@
       </c>
       <c r="R107" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S107" s="21">
         <f t="shared" si="11"/>
@@ -9642,7 +9608,7 @@
       </c>
       <c r="T107" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U107" s="24">
         <v>0</v>
@@ -9675,13 +9641,13 @@
         <v>116</v>
       </c>
       <c r="I108" s="27">
-        <v>45761</v>
+        <v>45873</v>
       </c>
       <c r="J108" s="28">
-        <v>45767</v>
+        <v>45893</v>
       </c>
       <c r="K108" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L108" s="18">
         <v>0</v>
@@ -9694,7 +9660,7 @@
       </c>
       <c r="O108" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>368</v>
       </c>
       <c r="P108" s="21">
         <f t="shared" si="8"/>
@@ -9702,19 +9668,19 @@
       </c>
       <c r="Q108" s="21">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R108" s="22">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>-56</v>
       </c>
       <c r="S108" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="T108" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>47</v>
       </c>
       <c r="U108" s="24">
         <v>0.71590581972999912</v>
@@ -9753,7 +9719,7 @@
         <v>45942</v>
       </c>
       <c r="K109" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L109" s="18">
         <v>0</v>
@@ -9778,7 +9744,7 @@
       </c>
       <c r="R109" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S109" s="21">
         <f t="shared" si="11"/>
@@ -9786,7 +9752,7 @@
       </c>
       <c r="T109" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U109" s="24">
         <v>0</v>
@@ -9825,7 +9791,7 @@
         <v>45942</v>
       </c>
       <c r="K110" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L110" s="18">
         <v>0</v>
@@ -9850,7 +9816,7 @@
       </c>
       <c r="R110" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S110" s="21">
         <f t="shared" si="11"/>
@@ -9858,7 +9824,7 @@
       </c>
       <c r="T110" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U110" s="24">
         <v>0</v>
@@ -9891,13 +9857,13 @@
         <v>116</v>
       </c>
       <c r="I111" s="27">
-        <v>45761</v>
+        <v>45901</v>
       </c>
       <c r="J111" s="28">
-        <v>45767</v>
+        <v>45921</v>
       </c>
       <c r="K111" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L111" s="18">
         <v>0.24279999999999999</v>
@@ -9910,27 +9876,27 @@
       </c>
       <c r="O111" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>396</v>
       </c>
       <c r="P111" s="21">
         <f t="shared" si="8"/>
-        <v>1.4567999999999999</v>
+        <v>4.8559999999999999</v>
       </c>
       <c r="Q111" s="21">
         <f t="shared" si="9"/>
-        <v>4.5432000000000006</v>
+        <v>15.144</v>
       </c>
       <c r="R111" s="22">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>-84</v>
       </c>
       <c r="S111" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="T111" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>75</v>
       </c>
       <c r="U111" s="24">
         <v>1.1364470150796924</v>
@@ -9969,7 +9935,7 @@
         <v>45942</v>
       </c>
       <c r="K112" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L112" s="18">
         <v>0</v>
@@ -9994,7 +9960,7 @@
       </c>
       <c r="R112" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S112" s="21">
         <f t="shared" si="11"/>
@@ -10002,7 +9968,7 @@
       </c>
       <c r="T112" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U112" s="24">
         <v>0</v>
@@ -10035,13 +10001,13 @@
         <v>116</v>
       </c>
       <c r="I113" s="27">
-        <v>45670</v>
+        <v>45894</v>
       </c>
       <c r="J113" s="28">
-        <v>45683</v>
+        <v>45914</v>
       </c>
       <c r="K113" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L113" s="18">
         <v>0.2228</v>
@@ -10054,27 +10020,27 @@
       </c>
       <c r="O113" s="21">
         <f t="shared" si="7"/>
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="P113" s="21">
         <f t="shared" si="8"/>
-        <v>2.8963999999999999</v>
+        <v>4.4559999999999995</v>
       </c>
       <c r="Q113" s="21">
         <f t="shared" si="9"/>
-        <v>10.1036</v>
+        <v>15.544</v>
       </c>
       <c r="R113" s="22">
         <f t="shared" si="10"/>
-        <v>133</v>
+        <v>-77</v>
       </c>
       <c r="S113" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T113" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-139</v>
+        <v>68</v>
       </c>
       <c r="U113" s="24">
         <v>0.86888955106354271</v>
@@ -10107,13 +10073,13 @@
         <v>117</v>
       </c>
       <c r="I114" s="27">
-        <v>45684</v>
+        <v>45901</v>
       </c>
       <c r="J114" s="28">
-        <v>45698</v>
+        <v>45930</v>
       </c>
       <c r="K114" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L114" s="18">
         <v>0.2702</v>
@@ -10126,27 +10092,27 @@
       </c>
       <c r="O114" s="21">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>396</v>
       </c>
       <c r="P114" s="21">
         <f t="shared" si="8"/>
-        <v>3.7827999999999999</v>
+        <v>7.8357999999999999</v>
       </c>
       <c r="Q114" s="21">
         <f t="shared" si="9"/>
-        <v>10.2172</v>
+        <v>21.164200000000001</v>
       </c>
       <c r="R114" s="22">
         <f t="shared" si="10"/>
-        <v>118</v>
+        <v>-93</v>
       </c>
       <c r="S114" s="21">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="T114" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-124</v>
+        <v>84</v>
       </c>
       <c r="U114" s="24">
         <v>1.9101722387327178</v>
@@ -10179,13 +10145,13 @@
         <v>116</v>
       </c>
       <c r="I115" s="27">
-        <v>45768</v>
+        <v>45845</v>
       </c>
       <c r="J115" s="28">
-        <v>45788</v>
+        <v>45858</v>
       </c>
       <c r="K115" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L115" s="18">
         <v>0.20080000000000001</v>
@@ -10198,27 +10164,27 @@
       </c>
       <c r="O115" s="21">
         <f t="shared" si="7"/>
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="P115" s="21">
         <f t="shared" si="8"/>
-        <v>4.016</v>
+        <v>2.6104000000000003</v>
       </c>
       <c r="Q115" s="21">
         <f t="shared" si="9"/>
-        <v>15.984</v>
+        <v>10.3896</v>
       </c>
       <c r="R115" s="22">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>-21</v>
       </c>
       <c r="S115" s="21">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T115" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-34</v>
+        <v>12</v>
       </c>
       <c r="U115" s="24">
         <v>2.3615133681493417</v>
@@ -10257,7 +10223,7 @@
         <v>45942</v>
       </c>
       <c r="K116" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L116" s="18">
         <v>0</v>
@@ -10282,7 +10248,7 @@
       </c>
       <c r="R116" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S116" s="21">
         <f t="shared" si="11"/>
@@ -10290,7 +10256,7 @@
       </c>
       <c r="T116" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U116" s="24">
         <v>0</v>
@@ -10329,7 +10295,7 @@
         <v>45942</v>
       </c>
       <c r="K117" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L117" s="18">
         <v>1</v>
@@ -10354,7 +10320,7 @@
       </c>
       <c r="R117" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S117" s="21">
         <f t="shared" si="11"/>
@@ -10362,7 +10328,7 @@
       </c>
       <c r="T117" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U117" s="24">
         <v>0</v>
@@ -10401,7 +10367,7 @@
         <v>45942</v>
       </c>
       <c r="K118" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L118" s="18">
         <v>0</v>
@@ -10426,7 +10392,7 @@
       </c>
       <c r="R118" s="22">
         <f t="shared" si="10"/>
-        <v>-126</v>
+        <v>-105</v>
       </c>
       <c r="S118" s="21">
         <f t="shared" si="11"/>
@@ -10434,7 +10400,7 @@
       </c>
       <c r="T118" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="U118" s="24">
         <v>0</v>
@@ -10467,13 +10433,13 @@
         <v>117</v>
       </c>
       <c r="I119" s="27">
-        <v>45663</v>
+        <v>45880</v>
       </c>
       <c r="J119" s="28">
-        <v>45676</v>
+        <v>45900</v>
       </c>
       <c r="K119" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L119" s="18">
         <v>0.25430000000000003</v>
@@ -10486,27 +10452,27 @@
       </c>
       <c r="O119" s="21">
         <f t="shared" si="7"/>
-        <v>158</v>
+        <v>375</v>
       </c>
       <c r="P119" s="21">
         <f t="shared" si="8"/>
-        <v>3.3059000000000003</v>
+        <v>5.0860000000000003</v>
       </c>
       <c r="Q119" s="21">
         <f t="shared" si="9"/>
-        <v>9.6940999999999988</v>
+        <v>14.914</v>
       </c>
       <c r="R119" s="22">
         <f t="shared" si="10"/>
-        <v>140</v>
+        <v>-63</v>
       </c>
       <c r="S119" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T119" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-146</v>
+        <v>54</v>
       </c>
       <c r="U119" s="24">
         <v>1.2772542166873568</v>
@@ -10539,13 +10505,13 @@
         <v>117</v>
       </c>
       <c r="I120" s="27">
-        <v>45733</v>
+        <v>45845</v>
       </c>
       <c r="J120" s="28">
-        <v>45746</v>
+        <v>45865</v>
       </c>
       <c r="K120" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L120" s="18">
         <v>0.26069999999999999</v>
@@ -10558,27 +10524,27 @@
       </c>
       <c r="O120" s="21">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="P120" s="21">
         <f t="shared" si="8"/>
-        <v>3.3891</v>
+        <v>5.2139999999999995</v>
       </c>
       <c r="Q120" s="21">
         <f t="shared" si="9"/>
-        <v>9.6109000000000009</v>
+        <v>14.786000000000001</v>
       </c>
       <c r="R120" s="22">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>-28</v>
       </c>
       <c r="S120" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T120" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-76</v>
+        <v>19</v>
       </c>
       <c r="U120" s="24">
         <v>1.3021928291029847</v>
@@ -10611,13 +10577,13 @@
         <v>116</v>
       </c>
       <c r="I121" s="27">
-        <v>45698</v>
+        <v>45901</v>
       </c>
       <c r="J121" s="28">
-        <v>45767</v>
+        <v>45930</v>
       </c>
       <c r="K121" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L121" s="18">
         <v>0</v>
@@ -10630,7 +10596,7 @@
       </c>
       <c r="O121" s="21">
         <f t="shared" si="7"/>
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="P121" s="21">
         <f t="shared" si="8"/>
@@ -10638,19 +10604,19 @@
       </c>
       <c r="Q121" s="21">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="R121" s="22">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>-93</v>
       </c>
       <c r="S121" s="21">
         <f t="shared" si="11"/>
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="T121" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-55</v>
+        <v>84</v>
       </c>
       <c r="U121" s="24">
         <v>2.2106399922458855</v>
@@ -10683,13 +10649,13 @@
         <v>117</v>
       </c>
       <c r="I122" s="27">
-        <v>45677</v>
+        <v>45824</v>
       </c>
       <c r="J122" s="28">
-        <v>45698</v>
+        <v>45837</v>
       </c>
       <c r="K122" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L122" s="18">
         <v>0.25929999999999997</v>
@@ -10702,27 +10668,27 @@
       </c>
       <c r="O122" s="21">
         <f t="shared" si="7"/>
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="P122" s="21">
         <f t="shared" si="8"/>
-        <v>5.4452999999999996</v>
+        <v>3.3708999999999998</v>
       </c>
       <c r="Q122" s="21">
         <f t="shared" si="9"/>
-        <v>15.5547</v>
+        <v>9.6291000000000011</v>
       </c>
       <c r="R122" s="22">
         <f t="shared" si="10"/>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="S122" s="21">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T122" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-124</v>
+        <v>-10</v>
       </c>
       <c r="U122" s="24">
         <v>0.94089880391742786</v>
@@ -10755,13 +10721,13 @@
         <v>117</v>
       </c>
       <c r="I123" s="27">
-        <v>45761</v>
+        <v>45845</v>
       </c>
       <c r="J123" s="28">
-        <v>45774</v>
+        <v>45872</v>
       </c>
       <c r="K123" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L123" s="18">
         <v>0.3</v>
@@ -10774,27 +10740,27 @@
       </c>
       <c r="O123" s="21">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="P123" s="21">
         <f t="shared" si="8"/>
-        <v>3.9</v>
+        <v>8.1</v>
       </c>
       <c r="Q123" s="21">
         <f t="shared" si="9"/>
-        <v>9.1</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="R123" s="22">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>-35</v>
       </c>
       <c r="S123" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="T123" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>26</v>
       </c>
       <c r="U123" s="24">
         <v>0.83220228058553414</v>
@@ -10827,13 +10793,13 @@
         <v>116</v>
       </c>
       <c r="I124" s="27">
-        <v>45747</v>
+        <v>45922</v>
       </c>
       <c r="J124" s="28">
-        <v>45774</v>
+        <v>45930</v>
       </c>
       <c r="K124" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L124" s="18">
         <v>0</v>
@@ -10846,7 +10812,7 @@
       </c>
       <c r="O124" s="21">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>417</v>
       </c>
       <c r="P124" s="21">
         <f t="shared" si="8"/>
@@ -10854,19 +10820,19 @@
       </c>
       <c r="Q124" s="21">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="R124" s="22">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>-93</v>
       </c>
       <c r="S124" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="T124" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-48</v>
+        <v>84</v>
       </c>
       <c r="U124" s="24">
         <v>1.1429745636452144</v>
@@ -10899,13 +10865,13 @@
         <v>116</v>
       </c>
       <c r="I125" s="27">
-        <v>45698</v>
+        <v>45901</v>
       </c>
       <c r="J125" s="28">
-        <v>45704</v>
+        <v>45893</v>
       </c>
       <c r="K125" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L125" s="18">
         <v>0.24249999999999999</v>
@@ -10918,27 +10884,27 @@
       </c>
       <c r="O125" s="21">
         <f t="shared" si="7"/>
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="P125" s="21">
         <f t="shared" si="8"/>
-        <v>1.4550000000000001</v>
+        <v>-1.94</v>
       </c>
       <c r="Q125" s="21">
         <f t="shared" si="9"/>
-        <v>4.5449999999999999</v>
+        <v>-6.0600000000000005</v>
       </c>
       <c r="R125" s="22">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>-56</v>
       </c>
       <c r="S125" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="T125" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-118</v>
+        <v>47</v>
       </c>
       <c r="U125" s="24">
         <v>0.65729302337862683</v>
@@ -10971,13 +10937,13 @@
         <v>116</v>
       </c>
       <c r="I126" s="27">
-        <v>45368</v>
+        <v>45866</v>
       </c>
       <c r="J126" s="28">
-        <v>45736</v>
+        <v>45893</v>
       </c>
       <c r="K126" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L126" s="18">
         <v>0.24970000000000001</v>
@@ -10990,27 +10956,27 @@
       </c>
       <c r="O126" s="21">
         <f t="shared" si="7"/>
-        <v>-137</v>
+        <v>361</v>
       </c>
       <c r="P126" s="21">
         <f t="shared" si="8"/>
-        <v>91.889600000000002</v>
+        <v>6.7419000000000002</v>
       </c>
       <c r="Q126" s="21">
         <f t="shared" si="9"/>
-        <v>276.11040000000003</v>
+        <v>20.258099999999999</v>
       </c>
       <c r="R126" s="22">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>-56</v>
       </c>
       <c r="S126" s="21">
         <f t="shared" si="11"/>
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="T126" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-86</v>
+        <v>47</v>
       </c>
       <c r="U126" s="24">
         <v>1.1353862689916343</v>
@@ -11043,13 +11009,13 @@
         <v>117</v>
       </c>
       <c r="I127" s="36">
-        <v>45761</v>
+        <v>45838</v>
       </c>
       <c r="J127" s="37">
-        <v>45802</v>
+        <v>45851</v>
       </c>
       <c r="K127" s="17">
-        <v>45816</v>
+        <v>45837</v>
       </c>
       <c r="L127" s="38">
         <v>0.3</v>
@@ -11062,27 +11028,27 @@
       </c>
       <c r="O127" s="41">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="P127" s="41">
         <f t="shared" si="8"/>
-        <v>12.299999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="Q127" s="41">
         <f t="shared" si="9"/>
-        <v>28.700000000000003</v>
+        <v>9.1</v>
       </c>
       <c r="R127" s="42">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="S127" s="21">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="T127" s="43">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="U127" s="43">
         <v>0.45616355925610708</v>
@@ -11090,13 +11056,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H127">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11109,7 +11075,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6E6F0B08-9874-4F13-8C7C-427F556576F6}</x14:id>
+          <x14:id>{B13953C5-2322-4FDD-8DAA-BBEE6B45E58D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11123,7 +11089,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31C92F67-3566-4783-9682-215F2BBDFEC7}</x14:id>
+          <x14:id>{98D7C4DA-FCC7-4326-8AA2-CFAFF61A3229}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11137,13 +11103,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{655480A5-D7FB-4CBB-9B7F-9AC8EEEDAD91}</x14:id>
+          <x14:id>{9075A0EC-3137-4FEE-AD86-1BE5C149F7E6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H127" xr:uid="{DA8C5721-CAEF-4A83-B7A8-FD8CD3E9444F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H127" xr:uid="{AD7422B6-08CD-4573-AE97-AD61EA57038F}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11156,7 +11122,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6E6F0B08-9874-4F13-8C7C-427F556576F6}">
+          <x14:cfRule type="dataBar" id="{B13953C5-2322-4FDD-8DAA-BBEE6B45E58D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11172,7 +11138,7 @@
           <xm:sqref>L2:L51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31C92F67-3566-4783-9682-215F2BBDFEC7}">
+          <x14:cfRule type="dataBar" id="{98D7C4DA-FCC7-4326-8AA2-CFAFF61A3229}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11188,7 +11154,7 @@
           <xm:sqref>L52:L127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{E7761EC8-95F4-4CC2-A33A-40E2889416AE}">
+          <x14:cfRule type="iconSet" priority="1" id="{58F65729-369F-46F7-8E5B-D24E452C5360}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11201,7 +11167,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{655480A5-D7FB-4CBB-9B7F-9AC8EEEDAD91}">
+          <x14:cfRule type="dataBar" id="{9075A0EC-3137-4FEE-AD86-1BE5C149F7E6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/data/Data_project_monitoring.xlsx
+++ b/data/Data_project_monitoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f799e150fe4d9a88/Documents/INCA NUSA AQUA/MASTER DASHBOARD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldyn\OneDrive\Documents\INCA NUSA AQUA\MASTER DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0DD4994F-22B5-4272-B3B4-AE0EF758BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA854F7-7AEB-4C7F-A94E-AA9DA1245DCB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3EF4AB-D76C-426C-8EED-78903ED601DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{A726FFC7-8C86-2D49-B379-B0BC013886F5}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DATA (wajib update)" sheetId="1" r:id="rId1"/>
@@ -762,113 +762,6 @@
   <dxfs count="27">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF332D2D"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1197,6 +1090,113 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF332D2D"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1539,29 +1539,29 @@
     <tableColumn id="8" xr3:uid="{18B6CDE1-CEB3-9E42-8DB1-40EF04ED709D}" name="PRIORITY" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{34E41527-6A3F-2D44-AB92-6C72689B6E9F}" name="START" dataDxfId="15"/>
     <tableColumn id="10" xr3:uid="{A3FAC971-1E59-A444-B82F-71358E0887BD}" name="PLAN END" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{9079756F-7D3E-0E43-B2A5-5356D486ED21}" name="ACTUAL END" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{945A0098-9CC3-4047-B4F7-CC39A1E31EF5}" name="% COMPLETE" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{AC9C7C90-8B8D-3C45-AE98-E7CFDD3DD916}" name="STATUS" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{50DCA361-CA43-9E4B-8580-927184E6D83C}" name="Project Start" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{0E7BD8A1-5B60-9D47-A4BA-748B04FA60D3}" name="Days to Start" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(I2),0,I2-N2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="11">
+    <tableColumn id="16" xr3:uid="{E6EBF2DA-7929-D743-809F-8B720E058B36}" name="Complete" dataDxfId="8">
       <calculatedColumnFormula>$L2*$S2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{8CE5C077-5BDC-0044-A1BB-90BD835F37E1}" name="Incomplete" dataDxfId="7">
       <calculatedColumnFormula>S2-P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="9">
+    <tableColumn id="18" xr3:uid="{99A1DC32-521F-C74F-A6F5-C70AFB0DA2F6}" name="Slippage" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(K2),0,(K2-I2)-S2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="8">
+    <tableColumn id="19" xr3:uid="{C68D290E-7C46-8E46-9B28-77DE939642C2}" name="Plan Days" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(J2),0,J2-I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="7">
+    <tableColumn id="20" xr3:uid="{852061C2-A170-5241-A83B-814807443220}" name="SISA DURASI KONTRAK" dataDxfId="4">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{2E7C9A09-919D-0A46-8438-938686AA48C9}" name="BOBOT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1890,8 +1890,8 @@
   <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2017,7 +2017,7 @@
         <v>45903</v>
       </c>
       <c r="K2" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L2" s="18">
         <v>0.72240000000000004</v>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="R2" s="22">
         <f>IF(ISBLANK(K2),0,(K2-I2)-S2)</f>
-        <v>-66</v>
+        <v>-52</v>
       </c>
       <c r="S2" s="21">
         <f>IF(ISBLANK(J2),0,J2-I2)</f>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="T2" s="23">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="U2" s="23">
         <v>5</v>
@@ -2089,7 +2089,7 @@
         <v>45529</v>
       </c>
       <c r="K3" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="R3" s="22">
         <f t="shared" ref="R3:R66" si="4">IF(ISBLANK(K3),0,(K3-I3)-S3)</f>
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="S3" s="21">
         <f t="shared" ref="S3:S66" si="5">IF(ISBLANK(J3),0,J3-I3)</f>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="T3" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-318</v>
+        <v>-328</v>
       </c>
       <c r="U3" s="24">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         <v>45669</v>
       </c>
       <c r="K4" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L4" s="18">
-        <v>0.78769999999999996</v>
+        <v>0.78779999999999994</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>26</v>
@@ -2176,15 +2176,15 @@
       </c>
       <c r="P4" s="21">
         <f t="shared" si="2"/>
-        <v>121.30579999999999</v>
+        <v>121.32119999999999</v>
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="3"/>
-        <v>32.694200000000009</v>
+        <v>32.67880000000001</v>
       </c>
       <c r="R4" s="22">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="5"/>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="T4" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-178</v>
+        <v>-188</v>
       </c>
       <c r="U4" s="24">
         <v>1.8586563945729366</v>
@@ -2231,7 +2231,7 @@
         <v>45697</v>
       </c>
       <c r="K5" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="R5" s="22">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="5"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="T5" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-150</v>
+        <v>-160</v>
       </c>
       <c r="U5" s="24">
         <v>0.79194964416177871</v>
@@ -2303,7 +2303,7 @@
         <v>45755</v>
       </c>
       <c r="K6" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L6" s="18">
         <v>0.1246</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="R6" s="22">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="5"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="T6" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-92</v>
+        <v>-102</v>
       </c>
       <c r="U6" s="24">
         <v>1.8581913281290774</v>
@@ -2375,10 +2375,10 @@
         <v>45781</v>
       </c>
       <c r="K7" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L7" s="18">
-        <v>0.3468</v>
+        <v>0.35589999999999999</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>26</v>
@@ -2392,15 +2392,15 @@
       </c>
       <c r="P7" s="21">
         <f t="shared" si="2"/>
-        <v>9.3635999999999999</v>
+        <v>9.6092999999999993</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" si="3"/>
-        <v>17.636400000000002</v>
+        <v>17.390700000000002</v>
       </c>
       <c r="R7" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="5"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="T7" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-66</v>
+        <v>-76</v>
       </c>
       <c r="U7" s="24">
         <v>0.45069827803129847</v>
@@ -2447,7 +2447,7 @@
         <v>45809</v>
       </c>
       <c r="K8" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L8" s="18">
         <v>0.19869999999999999</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="R8" s="22">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="5"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="T8" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-38</v>
+        <v>-48</v>
       </c>
       <c r="U8" s="24">
         <v>6.4714074693689341</v>
@@ -2519,10 +2519,10 @@
         <v>45781</v>
       </c>
       <c r="K9" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L9" s="18">
-        <v>0.41089999999999999</v>
+        <v>0.51639999999999997</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>32</v>
@@ -2536,15 +2536,15 @@
       </c>
       <c r="P9" s="21">
         <f t="shared" si="2"/>
-        <v>103.13589999999999</v>
+        <v>129.6164</v>
       </c>
       <c r="Q9" s="21">
         <f t="shared" si="3"/>
-        <v>147.86410000000001</v>
+        <v>121.3836</v>
       </c>
       <c r="R9" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="5"/>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="T9" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-66</v>
+        <v>-76</v>
       </c>
       <c r="U9" s="24">
         <v>2.1938359438979802</v>
@@ -2591,7 +2591,7 @@
         <v>45648</v>
       </c>
       <c r="K10" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L10" s="18">
         <v>0.4572</v>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="R10" s="22">
         <f t="shared" si="4"/>
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="5"/>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="T10" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-199</v>
+        <v>-209</v>
       </c>
       <c r="U10" s="24">
         <v>1.4899400056670535</v>
@@ -2663,10 +2663,10 @@
         <v>45830</v>
       </c>
       <c r="K11" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L11" s="18">
-        <v>1.24E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>40</v>
@@ -2680,15 +2680,15 @@
       </c>
       <c r="P11" s="21">
         <f t="shared" si="2"/>
-        <v>4.1539999999999999</v>
+        <v>12.73</v>
       </c>
       <c r="Q11" s="21">
         <f t="shared" si="3"/>
-        <v>330.846</v>
+        <v>322.27</v>
       </c>
       <c r="R11" s="22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="5"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="T11" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="U11" s="24">
         <v>33.058446215526629</v>
@@ -2735,7 +2735,7 @@
         <v>45830</v>
       </c>
       <c r="K12" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="R12" s="22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="5"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="T12" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="U12" s="24">
         <v>1.8989416148357232</v>
@@ -2807,7 +2807,7 @@
         <v>45704</v>
       </c>
       <c r="K13" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="R13" s="22">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="5"/>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="T13" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-143</v>
+        <v>-153</v>
       </c>
       <c r="U13" s="24">
         <v>0.61599151131979568</v>
@@ -2879,7 +2879,7 @@
         <v>45760</v>
       </c>
       <c r="K14" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="R14" s="22">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="5"/>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="T14" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-87</v>
+        <v>-97</v>
       </c>
       <c r="U14" s="24">
         <v>0.42275200889415104</v>
@@ -2951,7 +2951,7 @@
         <v>45767</v>
       </c>
       <c r="K15" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="R15" s="22">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="5"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="T15" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-80</v>
+        <v>-90</v>
       </c>
       <c r="U15" s="24">
         <v>5.4312137246679076E-2</v>
@@ -3023,7 +3023,7 @@
         <v>45788</v>
       </c>
       <c r="K16" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L16" s="18">
         <v>0.4385</v>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="R16" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="S16" s="21">
         <f t="shared" si="5"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="T16" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-59</v>
+        <v>-69</v>
       </c>
       <c r="U16" s="24">
         <v>0.74004960479265314</v>
@@ -3095,7 +3095,7 @@
         <v>45788</v>
       </c>
       <c r="K17" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="R17" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="5"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="T17" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-59</v>
+        <v>-69</v>
       </c>
       <c r="U17" s="24">
         <v>0.17748202368678323</v>
@@ -3167,7 +3167,7 @@
         <v>45697</v>
       </c>
       <c r="K18" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L18" s="18">
         <v>0.99970000000000003</v>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="R18" s="22">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="S18" s="21">
         <f t="shared" si="5"/>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="T18" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-150</v>
+        <v>-160</v>
       </c>
       <c r="U18" s="24">
         <v>3.9250044561777282E-2</v>
@@ -3239,7 +3239,7 @@
         <v>45697</v>
       </c>
       <c r="K19" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L19" s="18">
         <v>0</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="R19" s="22">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="5"/>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="T19" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-150</v>
+        <v>-160</v>
       </c>
       <c r="U19" s="24">
         <v>4.9777015190575383E-2</v>
@@ -3311,10 +3311,10 @@
         <v>45781</v>
       </c>
       <c r="K20" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L20" s="18">
-        <v>0.14860000000000001</v>
+        <v>0.1507</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>32</v>
@@ -3328,15 +3328,15 @@
       </c>
       <c r="P20" s="21">
         <f t="shared" si="2"/>
-        <v>28.977</v>
+        <v>29.386500000000002</v>
       </c>
       <c r="Q20" s="21">
         <f t="shared" si="3"/>
-        <v>166.023</v>
+        <v>165.61349999999999</v>
       </c>
       <c r="R20" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="S20" s="21">
         <f t="shared" si="5"/>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="T20" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-66</v>
+        <v>-76</v>
       </c>
       <c r="U20" s="24">
         <v>1.9866670170786576</v>
@@ -3383,10 +3383,10 @@
         <v>45823</v>
       </c>
       <c r="K21" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L21" s="18">
-        <v>9.69E-2</v>
+        <v>0.129</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>42</v>
@@ -3400,15 +3400,15 @@
       </c>
       <c r="P21" s="21">
         <f t="shared" si="2"/>
-        <v>17.538900000000002</v>
+        <v>23.349</v>
       </c>
       <c r="Q21" s="21">
         <f t="shared" si="3"/>
-        <v>163.46109999999999</v>
+        <v>157.65100000000001</v>
       </c>
       <c r="R21" s="22">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S21" s="21">
         <f t="shared" si="5"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="T21" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="U21" s="24">
         <v>8.0826749208230453</v>
@@ -3455,7 +3455,7 @@
         <v>45823</v>
       </c>
       <c r="K22" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="R22" s="22">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S22" s="21">
         <f t="shared" si="5"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="T22" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="U22" s="24">
         <v>4.8861619889981514E-2</v>
@@ -3527,7 +3527,7 @@
         <v>45767</v>
       </c>
       <c r="K23" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L23" s="18">
         <v>0</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="R23" s="22">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="S23" s="21">
         <f t="shared" si="5"/>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="T23" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-80</v>
+        <v>-90</v>
       </c>
       <c r="U23" s="24">
         <v>0.22890573488117585</v>
@@ -3599,7 +3599,7 @@
         <v>45760</v>
       </c>
       <c r="K24" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L24" s="18">
         <v>0</v>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="R24" s="22">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="S24" s="21">
         <f t="shared" si="5"/>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="T24" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-87</v>
+        <v>-97</v>
       </c>
       <c r="U24" s="24">
         <v>7.4966605347794035E-2</v>
@@ -3671,7 +3671,7 @@
         <v>45823</v>
       </c>
       <c r="K25" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L25" s="18">
         <v>0</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="R25" s="22">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S25" s="21">
         <f t="shared" si="5"/>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="T25" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="U25" s="24">
         <v>0.4156489033720388</v>
@@ -3743,7 +3743,7 @@
         <v>45830</v>
       </c>
       <c r="K26" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L26" s="18">
         <v>0</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="R26" s="22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S26" s="21">
         <f t="shared" si="5"/>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="T26" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="U26" s="24">
         <v>0.34221449233860612</v>
@@ -3815,7 +3815,7 @@
         <v>45683</v>
       </c>
       <c r="K27" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L27" s="18">
         <v>0.20930000000000001</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="R27" s="22">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="S27" s="21">
         <f t="shared" si="5"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="T27" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-164</v>
+        <v>-174</v>
       </c>
       <c r="U27" s="24">
         <v>2.0404487343946266E-2</v>
@@ -3887,7 +3887,7 @@
         <v>45725</v>
       </c>
       <c r="K28" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L28" s="18">
         <v>0</v>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="R28" s="22">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="S28" s="21">
         <f t="shared" si="5"/>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="T28" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-122</v>
+        <v>-132</v>
       </c>
       <c r="U28" s="24">
         <v>2.3371433481226382E-2</v>
@@ -3959,7 +3959,7 @@
         <v>45837</v>
       </c>
       <c r="K29" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L29" s="18">
         <v>4.7800000000000002E-2</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="R29" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S29" s="21">
         <f t="shared" si="5"/>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="T29" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="U29" s="24">
         <v>2.9187755059895788</v>
@@ -4031,7 +4031,7 @@
         <v>45872</v>
       </c>
       <c r="K30" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="R30" s="22">
         <f t="shared" si="4"/>
-        <v>-35</v>
+        <v>-21</v>
       </c>
       <c r="S30" s="21">
         <f t="shared" si="5"/>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="T30" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="U30" s="24">
         <v>0.11596582079047627</v>
@@ -4103,7 +4103,7 @@
         <v>45774</v>
       </c>
       <c r="K31" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="R31" s="22">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="S31" s="21">
         <f t="shared" si="5"/>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="T31" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-73</v>
+        <v>-83</v>
       </c>
       <c r="U31" s="24">
         <v>8.1747544717989548E-2</v>
@@ -4175,7 +4175,7 @@
         <v>45725</v>
       </c>
       <c r="K32" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="R32" s="22">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="S32" s="21">
         <f t="shared" si="5"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="T32" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-122</v>
+        <v>-132</v>
       </c>
       <c r="U32" s="24">
         <v>4.396791761852549E-2</v>
@@ -4247,7 +4247,7 @@
         <v>45725</v>
       </c>
       <c r="K33" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="R33" s="22">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="S33" s="21">
         <f t="shared" si="5"/>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="T33" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-122</v>
+        <v>-132</v>
       </c>
       <c r="U33" s="24">
         <v>1.2091683970173784E-2</v>
@@ -4319,7 +4319,7 @@
         <v>45683</v>
       </c>
       <c r="K34" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L34" s="18">
         <v>0.1056</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="R34" s="22">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="S34" s="21">
         <f t="shared" si="5"/>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="T34" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-164</v>
+        <v>-174</v>
       </c>
       <c r="U34" s="24">
         <v>2.2129086244257725</v>
@@ -4391,7 +4391,7 @@
         <v>45788</v>
       </c>
       <c r="K35" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L35" s="18">
         <v>0.21909999999999999</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="R35" s="22">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="S35" s="21">
         <f t="shared" si="5"/>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="T35" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-59</v>
+        <v>-69</v>
       </c>
       <c r="U35" s="24">
         <v>0.7163956909384217</v>
@@ -4463,7 +4463,7 @@
         <v>45879</v>
       </c>
       <c r="K36" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="R36" s="22">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="S36" s="21">
         <f t="shared" si="5"/>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="T36" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="U36" s="24">
         <v>2.788276283922893</v>
@@ -4535,7 +4535,7 @@
         <v>45879</v>
       </c>
       <c r="K37" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L37" s="18">
         <v>0.84599999999999997</v>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="R37" s="22">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="S37" s="21">
         <f t="shared" si="5"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="T37" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="U37" s="24">
         <v>0.24445340046690409</v>
@@ -4607,7 +4607,7 @@
         <v>45781</v>
       </c>
       <c r="K38" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L38" s="18">
         <v>0.33679999999999999</v>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="R38" s="22">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="S38" s="21">
         <f t="shared" si="5"/>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="T38" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-66</v>
+        <v>-76</v>
       </c>
       <c r="U38" s="24">
         <v>1.3834064445609398</v>
@@ -4679,7 +4679,7 @@
         <v>45767</v>
       </c>
       <c r="K39" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L39" s="18">
         <v>0</v>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="R39" s="22">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="S39" s="21">
         <f t="shared" si="5"/>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="T39" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-80</v>
+        <v>-90</v>
       </c>
       <c r="U39" s="24">
         <v>0.39134230671971154</v>
@@ -4751,7 +4751,7 @@
         <v>45831</v>
       </c>
       <c r="K40" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L40" s="18">
         <v>4.4999999999999997E-3</v>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="R40" s="22">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="S40" s="21">
         <f t="shared" si="5"/>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="T40" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-16</v>
+        <v>-26</v>
       </c>
       <c r="U40" s="24">
         <v>0.10777677087659648</v>
@@ -4823,7 +4823,7 @@
         <v>45830</v>
       </c>
       <c r="K41" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L41" s="18">
         <v>8.1500000000000003E-2</v>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="R41" s="22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S41" s="21">
         <f t="shared" si="5"/>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="T41" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="U41" s="24">
         <v>8.2318386059768451E-3</v>
@@ -4895,7 +4895,7 @@
         <v>45774</v>
       </c>
       <c r="K42" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L42" s="18">
         <v>0.20580000000000001</v>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="R42" s="22">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="S42" s="21">
         <f t="shared" si="5"/>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="T42" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-73</v>
+        <v>-83</v>
       </c>
       <c r="U42" s="24">
         <v>6.3041469860199054E-2</v>
@@ -4967,7 +4967,7 @@
         <v>45725</v>
       </c>
       <c r="K43" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L43" s="18">
         <v>0.2019</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="R43" s="22">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="S43" s="21">
         <f t="shared" si="5"/>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="T43" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-122</v>
+        <v>-132</v>
       </c>
       <c r="U43" s="24">
         <v>3.5386814494663736E-2</v>
@@ -5039,7 +5039,7 @@
         <v>45830</v>
       </c>
       <c r="K44" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L44" s="18">
         <v>0.2301</v>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="R44" s="22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S44" s="21">
         <f t="shared" si="5"/>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="T44" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="U44" s="24">
         <v>0.58542108403682003</v>
@@ -5111,10 +5111,10 @@
         <v>45816</v>
       </c>
       <c r="K45" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L45" s="18">
-        <v>0.31469999999999998</v>
+        <v>0.3216</v>
       </c>
       <c r="M45" s="19" t="s">
         <v>42</v>
@@ -5128,15 +5128,15 @@
       </c>
       <c r="P45" s="21">
         <f t="shared" si="2"/>
-        <v>105.42449999999999</v>
+        <v>107.736</v>
       </c>
       <c r="Q45" s="21">
         <f t="shared" si="3"/>
-        <v>229.57550000000001</v>
+        <v>227.26400000000001</v>
       </c>
       <c r="R45" s="22">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S45" s="21">
         <f t="shared" si="5"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="T45" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-31</v>
+        <v>-41</v>
       </c>
       <c r="U45" s="24">
         <v>18.96429322855024</v>
@@ -5183,7 +5183,7 @@
         <v>45725</v>
       </c>
       <c r="K46" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L46" s="18">
         <v>7.6799999999999993E-2</v>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="R46" s="22">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="S46" s="21">
         <f t="shared" si="5"/>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="T46" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-122</v>
+        <v>-132</v>
       </c>
       <c r="U46" s="24">
         <v>2.1882553326908354E-2</v>
@@ -5255,7 +5255,7 @@
         <v>45697</v>
       </c>
       <c r="K47" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L47" s="18">
         <v>0.44629999999999997</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="R47" s="22">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="S47" s="21">
         <f t="shared" si="5"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="T47" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-150</v>
+        <v>-160</v>
       </c>
       <c r="U47" s="24">
         <v>0.10433791562790558</v>
@@ -5327,7 +5327,7 @@
         <v>45774</v>
       </c>
       <c r="K48" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L48" s="18">
         <v>0</v>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="R48" s="22">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="S48" s="21">
         <f t="shared" si="5"/>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="T48" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-73</v>
+        <v>-83</v>
       </c>
       <c r="U48" s="24">
         <v>1.6500421520262731</v>
@@ -5399,7 +5399,7 @@
         <v>45823</v>
       </c>
       <c r="K49" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L49" s="18">
         <v>0</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="R49" s="22">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S49" s="21">
         <f t="shared" si="5"/>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="T49" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="U49" s="24">
         <v>1.4876499045579906E-2</v>
@@ -5471,7 +5471,7 @@
         <v>45837</v>
       </c>
       <c r="K50" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L50" s="18">
         <v>7.2700000000000001E-2</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="R50" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S50" s="21">
         <f t="shared" si="5"/>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="T50" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="U50" s="24">
         <v>6.7954571404563111E-2</v>
@@ -5543,7 +5543,7 @@
         <v>45725</v>
       </c>
       <c r="K51" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L51" s="18">
         <v>9.7999999999999997E-3</v>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="R51" s="22">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="S51" s="21">
         <f t="shared" si="5"/>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="T51" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-122</v>
+        <v>-132</v>
       </c>
       <c r="U51" s="24">
         <v>0.24341470950651456</v>
@@ -5615,10 +5615,10 @@
         <v>45942</v>
       </c>
       <c r="K52" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L52" s="18">
-        <v>0.511185</v>
+        <v>0.54979999999999996</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>26</v>
@@ -5632,15 +5632,15 @@
       </c>
       <c r="P52" s="21">
         <f t="shared" si="2"/>
-        <v>217.76481000000001</v>
+        <v>234.21479999999997</v>
       </c>
       <c r="Q52" s="21">
         <f t="shared" si="3"/>
-        <v>208.23518999999999</v>
+        <v>191.78520000000003</v>
       </c>
       <c r="R52" s="22">
         <f t="shared" si="4"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S52" s="21">
         <f t="shared" si="5"/>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="T52" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U52" s="24">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>45942</v>
       </c>
       <c r="K53" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L53" s="18">
         <v>1</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="R53" s="22">
         <f t="shared" si="4"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" si="5"/>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="T53" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U53" s="24">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>45942</v>
       </c>
       <c r="K54" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L54" s="18">
         <v>0</v>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="R54" s="22">
         <f t="shared" si="4"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S54" s="21">
         <f t="shared" si="5"/>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="T54" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U54" s="24">
         <v>0</v>
@@ -5831,10 +5831,10 @@
         <v>45816</v>
       </c>
       <c r="K55" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L55" s="18">
-        <v>0.96005099999999999</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="M55" s="19" t="s">
         <v>26</v>
@@ -5848,15 +5848,15 @@
       </c>
       <c r="P55" s="21">
         <f t="shared" si="2"/>
-        <v>51.842753999999999</v>
+        <v>52.595999999999997</v>
       </c>
       <c r="Q55" s="21">
         <f t="shared" si="3"/>
-        <v>2.1572460000000007</v>
+        <v>1.4040000000000035</v>
       </c>
       <c r="R55" s="22">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S55" s="21">
         <f t="shared" si="5"/>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="T55" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-31</v>
+        <v>-41</v>
       </c>
       <c r="U55" s="24">
         <v>7.3157389496987042</v>
@@ -5894,7 +5894,7 @@
         <v>PROJECT 1 BPEKERJAAN STRUKTURLABORATORIUM</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I56" s="27">
         <v>45762</v>
@@ -5903,10 +5903,10 @@
         <v>45865</v>
       </c>
       <c r="K56" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L56" s="18">
-        <v>0.52338700000000005</v>
+        <v>0.63919999999999999</v>
       </c>
       <c r="M56" s="19" t="s">
         <v>26</v>
@@ -5920,15 +5920,15 @@
       </c>
       <c r="P56" s="21">
         <f t="shared" si="2"/>
-        <v>53.908861000000002</v>
+        <v>65.837599999999995</v>
       </c>
       <c r="Q56" s="21">
         <f t="shared" si="3"/>
-        <v>49.091138999999998</v>
+        <v>37.162400000000005</v>
       </c>
       <c r="R56" s="22">
         <f t="shared" si="4"/>
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="S56" s="21">
         <f t="shared" si="5"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="T56" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U56" s="24">
         <v>1.2678290518311721</v>
@@ -5975,7 +5975,7 @@
         <v>45802</v>
       </c>
       <c r="K57" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L57" s="18">
         <v>1</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="R57" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S57" s="21">
         <f t="shared" si="5"/>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="T57" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-45</v>
+        <v>-55</v>
       </c>
       <c r="U57" s="24">
         <v>0.90362130154493769</v>
@@ -6047,7 +6047,7 @@
         <v>45802</v>
       </c>
       <c r="K58" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L58" s="18">
         <v>1</v>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="R58" s="22">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S58" s="21">
         <f t="shared" si="5"/>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="T58" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-45</v>
+        <v>-55</v>
       </c>
       <c r="U58" s="24">
         <v>0.90362130154493769</v>
@@ -6119,10 +6119,10 @@
         <v>45823</v>
       </c>
       <c r="K59" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L59" s="18">
-        <v>0.29275000000000001</v>
+        <v>0.29820000000000002</v>
       </c>
       <c r="M59" s="19" t="s">
         <v>26</v>
@@ -6136,15 +6136,15 @@
       </c>
       <c r="P59" s="21">
         <f t="shared" si="2"/>
-        <v>16.10125</v>
+        <v>16.401</v>
       </c>
       <c r="Q59" s="21">
         <f t="shared" si="3"/>
-        <v>38.89875</v>
+        <v>38.599000000000004</v>
       </c>
       <c r="R59" s="22">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S59" s="21">
         <f t="shared" si="5"/>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="T59" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="U59" s="24">
         <v>0.90362130154493769</v>
@@ -6191,10 +6191,10 @@
         <v>45858</v>
       </c>
       <c r="K60" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L60" s="18">
-        <v>0.98615299999999995</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="M60" s="19" t="s">
         <v>26</v>
@@ -6208,15 +6208,15 @@
       </c>
       <c r="P60" s="21">
         <f t="shared" si="2"/>
-        <v>88.753769999999989</v>
+        <v>88.866</v>
       </c>
       <c r="Q60" s="21">
         <f t="shared" si="3"/>
-        <v>1.2462300000000113</v>
+        <v>1.1340000000000003</v>
       </c>
       <c r="R60" s="22">
         <f t="shared" si="4"/>
-        <v>-21</v>
+        <v>-7</v>
       </c>
       <c r="S60" s="21">
         <f t="shared" si="5"/>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="T60" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U60" s="24">
         <v>1.5818776119585585</v>
@@ -6254,7 +6254,7 @@
         <v>PROJECT 1 BPEKERJAAN STRUKTURFAMILY STAFF HOUSE</v>
       </c>
       <c r="H61" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I61" s="27">
         <v>45768</v>
@@ -6263,10 +6263,10 @@
         <v>45893</v>
       </c>
       <c r="K61" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L61" s="18">
-        <v>8.0803E-2</v>
+        <v>0.25729999999999997</v>
       </c>
       <c r="M61" s="19" t="s">
         <v>26</v>
@@ -6280,15 +6280,15 @@
       </c>
       <c r="P61" s="21">
         <f t="shared" si="2"/>
-        <v>10.100375</v>
+        <v>32.162499999999994</v>
       </c>
       <c r="Q61" s="21">
         <f t="shared" si="3"/>
-        <v>114.899625</v>
+        <v>92.837500000000006</v>
       </c>
       <c r="R61" s="22">
         <f t="shared" si="4"/>
-        <v>-56</v>
+        <v>-42</v>
       </c>
       <c r="S61" s="21">
         <f t="shared" si="5"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="T61" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U61" s="24">
         <v>1.2842274814527748</v>
@@ -6335,10 +6335,10 @@
         <v>45865</v>
       </c>
       <c r="K62" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L62" s="18">
-        <v>0.97268600000000005</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="M62" s="19" t="s">
         <v>26</v>
@@ -6352,15 +6352,15 @@
       </c>
       <c r="P62" s="21">
         <f t="shared" si="2"/>
-        <v>87.541740000000004</v>
+        <v>87.75</v>
       </c>
       <c r="Q62" s="21">
         <f t="shared" si="3"/>
-        <v>2.4582599999999957</v>
+        <v>2.25</v>
       </c>
       <c r="R62" s="22">
         <f t="shared" si="4"/>
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="S62" s="21">
         <f t="shared" si="5"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="T62" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U62" s="24">
         <v>6.1841913050091657</v>
@@ -6407,7 +6407,7 @@
         <v>45942</v>
       </c>
       <c r="K63" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L63" s="18">
         <v>0</v>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="R63" s="22">
         <f t="shared" si="4"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S63" s="21">
         <f t="shared" si="5"/>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="T63" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U63" s="24">
         <v>0</v>
@@ -6479,10 +6479,10 @@
         <v>45851</v>
       </c>
       <c r="K64" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L64" s="18">
-        <v>0.81789800000000001</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>26</v>
@@ -6496,15 +6496,15 @@
       </c>
       <c r="P64" s="21">
         <f t="shared" si="2"/>
-        <v>56.434961999999999</v>
+        <v>59.222699999999996</v>
       </c>
       <c r="Q64" s="21">
         <f t="shared" si="3"/>
-        <v>12.565038000000001</v>
+        <v>9.7773000000000039</v>
       </c>
       <c r="R64" s="22">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="S64" s="21">
         <f t="shared" si="5"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="T64" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="U64" s="24">
         <v>0.94074024135300072</v>
@@ -6551,10 +6551,10 @@
         <v>45886</v>
       </c>
       <c r="K65" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L65" s="18">
-        <v>0.82937099999999997</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>26</v>
@@ -6568,15 +6568,15 @@
       </c>
       <c r="P65" s="21">
         <f t="shared" si="2"/>
-        <v>92.060181</v>
+        <v>108.10290000000001</v>
       </c>
       <c r="Q65" s="21">
         <f t="shared" si="3"/>
-        <v>18.939819</v>
+        <v>2.8970999999999947</v>
       </c>
       <c r="R65" s="22">
         <f t="shared" si="4"/>
-        <v>-49</v>
+        <v>-35</v>
       </c>
       <c r="S65" s="21">
         <f t="shared" si="5"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="T65" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U65" s="24">
         <v>1.2317038245452467</v>
@@ -6623,10 +6623,10 @@
         <v>45879</v>
       </c>
       <c r="K66" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L66" s="18">
-        <v>0.15859999999999999</v>
+        <v>0.1716</v>
       </c>
       <c r="M66" s="19" t="s">
         <v>26</v>
@@ -6640,15 +6640,15 @@
       </c>
       <c r="P66" s="21">
         <f t="shared" si="2"/>
-        <v>45.3596</v>
+        <v>49.077600000000004</v>
       </c>
       <c r="Q66" s="21">
         <f t="shared" si="3"/>
-        <v>240.6404</v>
+        <v>236.92239999999998</v>
       </c>
       <c r="R66" s="22">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="S66" s="21">
         <f t="shared" si="5"/>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="T66" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="U66" s="24">
         <v>4.341217820948339</v>
@@ -6695,10 +6695,10 @@
         <v>45830</v>
       </c>
       <c r="K67" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L67" s="18">
-        <v>0.87442399999999998</v>
+        <v>1</v>
       </c>
       <c r="M67" s="19" t="s">
         <v>40</v>
@@ -6712,15 +6712,15 @@
       </c>
       <c r="P67" s="21">
         <f t="shared" ref="P67:P127" si="8">$L67*$S67</f>
-        <v>17.488479999999999</v>
+        <v>20</v>
       </c>
       <c r="Q67" s="21">
         <f t="shared" ref="Q67:Q127" si="9">S67-P67</f>
-        <v>2.5115200000000009</v>
+        <v>0</v>
       </c>
       <c r="R67" s="22">
         <f t="shared" ref="R67:R127" si="10">IF(ISBLANK(K67),0,(K67-I67)-S67)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S67" s="21">
         <f t="shared" ref="S67:S127" si="11">IF(ISBLANK(J67),0,J67-I67)</f>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="T67" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-17</v>
+        <v>-27</v>
       </c>
       <c r="U67" s="24">
         <v>1.2874256064363331E-2</v>
@@ -6767,7 +6767,7 @@
         <v>45794</v>
       </c>
       <c r="K68" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L68" s="18">
         <v>0.1241</v>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="R68" s="22">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="S68" s="21">
         <f t="shared" si="11"/>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="T68" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-53</v>
+        <v>-63</v>
       </c>
       <c r="U68" s="24">
         <v>0.87755848995820385</v>
@@ -6839,10 +6839,10 @@
         <v>45851</v>
       </c>
       <c r="K69" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L69" s="18">
-        <v>0.627965</v>
+        <v>0.87080000000000002</v>
       </c>
       <c r="M69" s="19" t="s">
         <v>26</v>
@@ -6856,15 +6856,15 @@
       </c>
       <c r="P69" s="21">
         <f t="shared" si="8"/>
-        <v>43.329585000000002</v>
+        <v>60.0852</v>
       </c>
       <c r="Q69" s="21">
         <f t="shared" si="9"/>
-        <v>25.670414999999998</v>
+        <v>8.9147999999999996</v>
       </c>
       <c r="R69" s="22">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="S69" s="21">
         <f t="shared" si="11"/>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="T69" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="U69" s="24">
         <v>5.6463899562994637</v>
@@ -6911,10 +6911,10 @@
         <v>45858</v>
       </c>
       <c r="K70" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L70" s="18">
-        <v>0.998946</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="M70" s="19" t="s">
         <v>26</v>
@@ -6928,15 +6928,15 @@
       </c>
       <c r="P70" s="21">
         <f t="shared" si="8"/>
-        <v>95.898815999999997</v>
+        <v>95.894400000000005</v>
       </c>
       <c r="Q70" s="21">
         <f t="shared" si="9"/>
-        <v>0.10118400000000349</v>
+        <v>0.10559999999999548</v>
       </c>
       <c r="R70" s="22">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>-7</v>
       </c>
       <c r="S70" s="21">
         <f t="shared" si="11"/>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="T70" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U70" s="24">
         <v>3.3921463524873796</v>
@@ -6983,10 +6983,10 @@
         <v>45879</v>
       </c>
       <c r="K71" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L71" s="18">
-        <v>0.39142199999999999</v>
+        <v>0.44190000000000002</v>
       </c>
       <c r="M71" s="19" t="s">
         <v>26</v>
@@ -7000,15 +7000,15 @@
       </c>
       <c r="P71" s="21">
         <f t="shared" si="8"/>
-        <v>37.967934</v>
+        <v>42.8643</v>
       </c>
       <c r="Q71" s="21">
         <f t="shared" si="9"/>
-        <v>59.032066</v>
+        <v>54.1357</v>
       </c>
       <c r="R71" s="22">
         <f t="shared" si="10"/>
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="S71" s="21">
         <f t="shared" si="11"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="T71" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="U71" s="24">
         <v>1.1565364385446064</v>
@@ -7055,7 +7055,7 @@
         <v>45891</v>
       </c>
       <c r="K72" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L72" s="18">
         <v>3.225E-3</v>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="R72" s="22">
         <f t="shared" si="10"/>
-        <v>-54</v>
+        <v>-40</v>
       </c>
       <c r="S72" s="21">
         <f t="shared" si="11"/>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="T72" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="U72" s="24">
         <v>0.35948495436649136</v>
@@ -7127,7 +7127,7 @@
         <v>45851</v>
       </c>
       <c r="K73" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L73" s="18">
         <v>0</v>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="R73" s="22">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="S73" s="21">
         <f t="shared" si="11"/>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="T73" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="U73" s="24">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>45942</v>
       </c>
       <c r="K74" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L74" s="18">
         <v>0</v>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="R74" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S74" s="21">
         <f t="shared" si="11"/>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="T74" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U74" s="24">
         <v>0</v>
@@ -7271,10 +7271,10 @@
         <v>45900</v>
       </c>
       <c r="K75" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L75" s="18">
-        <v>0.115463</v>
+        <v>0.126</v>
       </c>
       <c r="M75" s="19" t="s">
         <v>40</v>
@@ -7288,15 +7288,15 @@
       </c>
       <c r="P75" s="21">
         <f t="shared" si="8"/>
-        <v>15.933893999999999</v>
+        <v>17.388000000000002</v>
       </c>
       <c r="Q75" s="21">
         <f t="shared" si="9"/>
-        <v>122.066106</v>
+        <v>120.61199999999999</v>
       </c>
       <c r="R75" s="22">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-49</v>
       </c>
       <c r="S75" s="21">
         <f t="shared" si="11"/>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="T75" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="U75" s="24">
         <v>7.3681118933140155</v>
@@ -7334,7 +7334,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURLABORATORIUM</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I76" s="27">
         <v>45859</v>
@@ -7343,10 +7343,10 @@
         <v>45893</v>
       </c>
       <c r="K76" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L76" s="18">
-        <v>0.23555300000000001</v>
+        <v>0.5071</v>
       </c>
       <c r="M76" s="19" t="s">
         <v>42</v>
@@ -7360,15 +7360,15 @@
       </c>
       <c r="P76" s="21">
         <f t="shared" si="8"/>
-        <v>8.0088020000000011</v>
+        <v>17.241399999999999</v>
       </c>
       <c r="Q76" s="21">
         <f t="shared" si="9"/>
-        <v>25.991197999999997</v>
+        <v>16.758600000000001</v>
       </c>
       <c r="R76" s="22">
         <f t="shared" si="10"/>
-        <v>-56</v>
+        <v>-42</v>
       </c>
       <c r="S76" s="21">
         <f t="shared" si="11"/>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="T76" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U76" s="24">
         <v>1.9262225609604624</v>
@@ -7415,7 +7415,7 @@
         <v>45942</v>
       </c>
       <c r="K77" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L77" s="18">
         <v>0</v>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="R77" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S77" s="21">
         <f t="shared" si="11"/>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="T77" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U77" s="24">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURFEED WAREHOUSE</v>
       </c>
       <c r="H78" s="48" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I78" s="27">
         <v>45796</v>
@@ -7487,10 +7487,10 @@
         <v>45814</v>
       </c>
       <c r="K78" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L78" s="18">
-        <v>0.16509299999999999</v>
+        <v>0.71220000000000006</v>
       </c>
       <c r="M78" s="19" t="s">
         <v>40</v>
@@ -7504,15 +7504,15 @@
       </c>
       <c r="P78" s="21">
         <f t="shared" si="8"/>
-        <v>2.9716739999999997</v>
+        <v>12.819600000000001</v>
       </c>
       <c r="Q78" s="21">
         <f t="shared" si="9"/>
-        <v>15.028326</v>
+        <v>5.1803999999999988</v>
       </c>
       <c r="R78" s="22">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="S78" s="21">
         <f t="shared" si="11"/>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="T78" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-33</v>
+        <v>-43</v>
       </c>
       <c r="U78" s="24">
         <v>2.6947696149272917</v>
@@ -7559,10 +7559,10 @@
         <v>45907</v>
       </c>
       <c r="K79" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L79" s="18">
-        <v>8.2214999999999996E-2</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="M79" s="19" t="s">
         <v>40</v>
@@ -7576,15 +7576,15 @@
       </c>
       <c r="P79" s="21">
         <f t="shared" si="8"/>
-        <v>5.6728350000000001</v>
+        <v>7.8728999999999996</v>
       </c>
       <c r="Q79" s="21">
         <f t="shared" si="9"/>
-        <v>63.327165000000001</v>
+        <v>61.127099999999999</v>
       </c>
       <c r="R79" s="22">
         <f t="shared" si="10"/>
-        <v>-70</v>
+        <v>-56</v>
       </c>
       <c r="S79" s="21">
         <f t="shared" si="11"/>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="T79" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="U79" s="24">
         <v>7.1455552805644906</v>
@@ -7622,7 +7622,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURKANTIN</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I80" s="27">
         <v>45824</v>
@@ -7631,10 +7631,10 @@
         <v>45886</v>
       </c>
       <c r="K80" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L80" s="18">
-        <v>0.46292</v>
+        <v>0.64959999999999996</v>
       </c>
       <c r="M80" s="19" t="s">
         <v>26</v>
@@ -7648,15 +7648,15 @@
       </c>
       <c r="P80" s="21">
         <f t="shared" si="8"/>
-        <v>28.701039999999999</v>
+        <v>40.275199999999998</v>
       </c>
       <c r="Q80" s="21">
         <f t="shared" si="9"/>
-        <v>33.298960000000001</v>
+        <v>21.724800000000002</v>
       </c>
       <c r="R80" s="22">
         <f t="shared" si="10"/>
-        <v>-49</v>
+        <v>-35</v>
       </c>
       <c r="S80" s="21">
         <f t="shared" si="11"/>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="T80" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U80" s="24">
         <v>2.1250737260073151</v>
@@ -7703,10 +7703,10 @@
         <v>45514</v>
       </c>
       <c r="K81" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L81" s="18">
-        <v>0.64031800000000005</v>
+        <v>0.872</v>
       </c>
       <c r="M81" s="19" t="s">
         <v>40</v>
@@ -7720,15 +7720,15 @@
       </c>
       <c r="P81" s="21">
         <f t="shared" si="8"/>
-        <v>-202.98080600000003</v>
+        <v>-276.42399999999998</v>
       </c>
       <c r="Q81" s="21">
         <f t="shared" si="9"/>
-        <v>-114.01919399999997</v>
+        <v>-40.576000000000022</v>
       </c>
       <c r="R81" s="22">
         <f t="shared" si="10"/>
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="S81" s="21">
         <f t="shared" si="11"/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="T81" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-333</v>
+        <v>-343</v>
       </c>
       <c r="U81" s="24">
         <v>2.2141421850391501</v>
@@ -7775,10 +7775,10 @@
         <v>45930</v>
       </c>
       <c r="K82" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L82" s="18">
-        <v>4.0500000000000001E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="M82" s="19" t="s">
         <v>40</v>
@@ -7792,15 +7792,15 @@
       </c>
       <c r="P82" s="21">
         <f t="shared" si="8"/>
-        <v>3.4424999999999999</v>
+        <v>6.4430000000000005</v>
       </c>
       <c r="Q82" s="21">
         <f t="shared" si="9"/>
-        <v>81.557500000000005</v>
+        <v>78.557000000000002</v>
       </c>
       <c r="R82" s="22">
         <f t="shared" si="10"/>
-        <v>-93</v>
+        <v>-79</v>
       </c>
       <c r="S82" s="21">
         <f t="shared" si="11"/>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="T82" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U82" s="24">
         <v>2.1434231234710972</v>
@@ -7847,7 +7847,7 @@
         <v>45942</v>
       </c>
       <c r="K83" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L83" s="18">
         <v>0</v>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="R83" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S83" s="21">
         <f t="shared" si="11"/>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="T83" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U83" s="24">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTUROFFICE</v>
       </c>
       <c r="H84" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I84" s="27">
         <v>45824</v>
@@ -7919,10 +7919,10 @@
         <v>45872</v>
       </c>
       <c r="K84" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L84" s="18">
-        <v>0.43954599999999999</v>
+        <v>0.69950000000000001</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>26</v>
@@ -7936,15 +7936,15 @@
       </c>
       <c r="P84" s="21">
         <f t="shared" si="8"/>
-        <v>21.098208</v>
+        <v>33.576000000000001</v>
       </c>
       <c r="Q84" s="21">
         <f t="shared" si="9"/>
-        <v>26.901792</v>
+        <v>14.423999999999999</v>
       </c>
       <c r="R84" s="22">
         <f t="shared" si="10"/>
-        <v>-35</v>
+        <v>-21</v>
       </c>
       <c r="S84" s="21">
         <f t="shared" si="11"/>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="T84" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="U84" s="24">
         <v>4.2091892986185098</v>
@@ -7982,7 +7982,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURWEIGHT HOUSE</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I85" s="27">
         <v>45817</v>
@@ -7991,10 +7991,10 @@
         <v>45865</v>
       </c>
       <c r="K85" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L85" s="18">
-        <v>0.21690000000000001</v>
+        <v>0.26379999999999998</v>
       </c>
       <c r="M85" s="19" t="s">
         <v>42</v>
@@ -8008,15 +8008,15 @@
       </c>
       <c r="P85" s="21">
         <f t="shared" si="8"/>
-        <v>10.411200000000001</v>
+        <v>12.662399999999998</v>
       </c>
       <c r="Q85" s="21">
         <f t="shared" si="9"/>
-        <v>37.588799999999999</v>
+        <v>35.337600000000002</v>
       </c>
       <c r="R85" s="22">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="S85" s="21">
         <f t="shared" si="11"/>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="T85" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U85" s="24">
         <v>0.67906690555318538</v>
@@ -8063,7 +8063,7 @@
         <v>45844</v>
       </c>
       <c r="K86" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L86" s="18">
         <v>0</v>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="R86" s="22">
         <f t="shared" si="10"/>
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="S86" s="21">
         <f t="shared" si="11"/>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="T86" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="U86" s="24">
         <v>0.3705846265159719</v>
@@ -8126,7 +8126,7 @@
         <v>PROJECT 1 BPEKERJAAN ARSITEKTURPUMP HOUSE</v>
       </c>
       <c r="H87" s="48" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I87" s="27">
         <v>45796</v>
@@ -8135,10 +8135,10 @@
         <v>45865</v>
       </c>
       <c r="K87" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L87" s="18">
-        <v>0.58789999999999998</v>
+        <v>0.82950000000000002</v>
       </c>
       <c r="M87" s="19" t="s">
         <v>40</v>
@@ -8152,15 +8152,15 @@
       </c>
       <c r="P87" s="21">
         <f t="shared" si="8"/>
-        <v>40.565100000000001</v>
+        <v>57.235500000000002</v>
       </c>
       <c r="Q87" s="21">
         <f t="shared" si="9"/>
-        <v>28.434899999999999</v>
+        <v>11.764499999999998</v>
       </c>
       <c r="R87" s="22">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="S87" s="21">
         <f t="shared" si="11"/>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="T87" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U87" s="24">
         <v>0.46782862216660642</v>
@@ -8207,10 +8207,10 @@
         <v>45808</v>
       </c>
       <c r="K88" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L88" s="18">
-        <v>0.46493800000000002</v>
+        <v>0.59109999999999996</v>
       </c>
       <c r="M88" s="19" t="s">
         <v>26</v>
@@ -8224,15 +8224,15 @@
       </c>
       <c r="P88" s="21">
         <f t="shared" si="8"/>
-        <v>-17.202705999999999</v>
+        <v>-21.870699999999999</v>
       </c>
       <c r="Q88" s="21">
         <f t="shared" si="9"/>
-        <v>-19.797294000000001</v>
+        <v>-15.129300000000001</v>
       </c>
       <c r="R88" s="22">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S88" s="21">
         <f t="shared" si="11"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="T88" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-39</v>
+        <v>-49</v>
       </c>
       <c r="U88" s="24">
         <v>2.1434231234710972</v>
@@ -8279,7 +8279,7 @@
         <v>45942</v>
       </c>
       <c r="K89" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L89" s="18">
         <v>1</v>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="R89" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S89" s="21">
         <f t="shared" si="11"/>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="T89" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U89" s="24">
         <v>0</v>
@@ -8351,10 +8351,10 @@
         <v>45900</v>
       </c>
       <c r="K90" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L90" s="18">
-        <v>0.16259999999999999</v>
+        <v>0.2069</v>
       </c>
       <c r="M90" s="19" t="s">
         <v>40</v>
@@ -8368,15 +8368,15 @@
       </c>
       <c r="P90" s="21">
         <f t="shared" si="8"/>
-        <v>10.081199999999999</v>
+        <v>12.8278</v>
       </c>
       <c r="Q90" s="21">
         <f t="shared" si="9"/>
-        <v>51.918800000000005</v>
+        <v>49.172200000000004</v>
       </c>
       <c r="R90" s="22">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-49</v>
       </c>
       <c r="S90" s="21">
         <f t="shared" si="11"/>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="T90" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="U90" s="24">
         <v>0.66829826225735345</v>
@@ -8423,10 +8423,10 @@
         <v>45858</v>
       </c>
       <c r="K91" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L91" s="18">
-        <v>0</v>
+        <v>2.934E-3</v>
       </c>
       <c r="M91" s="19" t="s">
         <v>26</v>
@@ -8440,15 +8440,15 @@
       </c>
       <c r="P91" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9.9755999999999997E-2</v>
       </c>
       <c r="Q91" s="21">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>33.900244000000001</v>
       </c>
       <c r="R91" s="22">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>-7</v>
       </c>
       <c r="S91" s="21">
         <f t="shared" si="11"/>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="T91" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U91" s="24">
         <v>0.45089754003550009</v>
@@ -8495,7 +8495,7 @@
         <v>45851</v>
       </c>
       <c r="K92" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L92" s="18">
         <v>8.1199999999999994E-2</v>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="R92" s="22">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="S92" s="21">
         <f t="shared" si="11"/>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="T92" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="U92" s="24">
         <v>0.47544300629915759</v>
@@ -8567,7 +8567,7 @@
         <v>45942</v>
       </c>
       <c r="K93" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L93" s="18">
         <v>0</v>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="R93" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S93" s="21">
         <f t="shared" si="11"/>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="T93" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U93" s="24">
         <v>0</v>
@@ -8639,10 +8639,10 @@
         <v>45930</v>
       </c>
       <c r="K94" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L94" s="18">
-        <v>9.1399999999999995E-2</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="M94" s="19" t="s">
         <v>40</v>
@@ -8656,15 +8656,15 @@
       </c>
       <c r="P94" s="21">
         <f t="shared" si="8"/>
-        <v>5.8495999999999997</v>
+        <v>6.3040000000000003</v>
       </c>
       <c r="Q94" s="21">
         <f t="shared" si="9"/>
-        <v>58.150399999999998</v>
+        <v>57.695999999999998</v>
       </c>
       <c r="R94" s="22">
         <f t="shared" si="10"/>
-        <v>-93</v>
+        <v>-79</v>
       </c>
       <c r="S94" s="21">
         <f t="shared" si="11"/>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="T94" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U94" s="24">
         <v>7.4012273158472057</v>
@@ -8711,7 +8711,7 @@
         <v>45942</v>
       </c>
       <c r="K95" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L95" s="18">
         <v>0</v>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="R95" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S95" s="21">
         <f t="shared" si="11"/>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="T95" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U95" s="24">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>45907</v>
       </c>
       <c r="K96" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L96" s="18">
-        <v>0</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="M96" s="19" t="s">
         <v>42</v>
@@ -8800,15 +8800,15 @@
       </c>
       <c r="P96" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.9684000000000004</v>
       </c>
       <c r="Q96" s="21">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>38.031599999999997</v>
       </c>
       <c r="R96" s="22">
         <f t="shared" si="10"/>
-        <v>-70</v>
+        <v>-56</v>
       </c>
       <c r="S96" s="21">
         <f t="shared" si="11"/>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="T96" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="U96" s="24">
         <v>0.12529658962134113</v>
@@ -8855,7 +8855,7 @@
         <v>45942</v>
       </c>
       <c r="K97" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L97" s="18">
         <v>0</v>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="R97" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S97" s="21">
         <f t="shared" si="11"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="T97" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U97" s="24">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>45865</v>
       </c>
       <c r="K98" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L98" s="18">
-        <v>0</v>
+        <v>6.9900000000000004E-2</v>
       </c>
       <c r="M98" s="19" t="s">
         <v>40</v>
@@ -8944,15 +8944,15 @@
       </c>
       <c r="P98" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.3980000000000001</v>
       </c>
       <c r="Q98" s="21">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>18.602</v>
       </c>
       <c r="R98" s="22">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="S98" s="21">
         <f t="shared" si="11"/>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="T98" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U98" s="24">
         <v>0.53563667137898285</v>
@@ -8999,10 +8999,10 @@
         <v>45872</v>
       </c>
       <c r="K99" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L99" s="18">
-        <v>0</v>
+        <v>0.12470000000000001</v>
       </c>
       <c r="M99" s="19" t="s">
         <v>40</v>
@@ -9016,15 +9016,15 @@
       </c>
       <c r="P99" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.4940000000000002</v>
       </c>
       <c r="Q99" s="21">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>17.506</v>
       </c>
       <c r="R99" s="22">
         <f t="shared" si="10"/>
-        <v>-35</v>
+        <v>-21</v>
       </c>
       <c r="S99" s="21">
         <f t="shared" si="11"/>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="T99" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="U99" s="24">
         <v>0.31365570942757215</v>
@@ -9071,10 +9071,10 @@
         <v>45886</v>
       </c>
       <c r="K100" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L100" s="18">
-        <v>0</v>
+        <v>0.18659999999999999</v>
       </c>
       <c r="M100" s="19" t="s">
         <v>40</v>
@@ -9088,15 +9088,15 @@
       </c>
       <c r="P100" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.7319999999999998</v>
       </c>
       <c r="Q100" s="21">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>16.268000000000001</v>
       </c>
       <c r="R100" s="22">
         <f t="shared" si="10"/>
-        <v>-49</v>
+        <v>-35</v>
       </c>
       <c r="S100" s="21">
         <f t="shared" si="11"/>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="T100" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="U100" s="24">
         <v>0.1502798023901277</v>
@@ -9143,7 +9143,7 @@
         <v>45942</v>
       </c>
       <c r="K101" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L101" s="18">
         <v>0</v>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="R101" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S101" s="21">
         <f t="shared" si="11"/>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="T101" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U101" s="24">
         <v>0</v>
@@ -9215,10 +9215,10 @@
         <v>45844</v>
       </c>
       <c r="K102" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L102" s="18">
-        <v>0</v>
+        <v>0.1449</v>
       </c>
       <c r="M102" s="19" t="s">
         <v>40</v>
@@ -9232,15 +9232,15 @@
       </c>
       <c r="P102" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.8836999999999999</v>
       </c>
       <c r="Q102" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>11.116300000000001</v>
       </c>
       <c r="R102" s="22">
         <f t="shared" si="10"/>
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="S102" s="21">
         <f t="shared" si="11"/>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="T102" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="U102" s="24">
         <v>0.1640586615913901</v>
@@ -9287,10 +9287,10 @@
         <v>45858</v>
       </c>
       <c r="K103" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L103" s="18">
-        <v>0</v>
+        <v>0.18640000000000001</v>
       </c>
       <c r="M103" s="19" t="s">
         <v>40</v>
@@ -9304,15 +9304,15 @@
       </c>
       <c r="P103" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.1184000000000001</v>
       </c>
       <c r="Q103" s="21">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>4.8815999999999997</v>
       </c>
       <c r="R103" s="22">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>-7</v>
       </c>
       <c r="S103" s="21">
         <f t="shared" si="11"/>
@@ -9320,7 +9320,7 @@
       </c>
       <c r="T103" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U103" s="24">
         <v>0.1502798023901277</v>
@@ -9359,7 +9359,7 @@
         <v>45942</v>
       </c>
       <c r="K104" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L104" s="18">
         <v>0</v>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="R104" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S104" s="21">
         <f t="shared" si="11"/>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="T104" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U104" s="24">
         <v>0</v>
@@ -9431,10 +9431,10 @@
         <v>45816</v>
       </c>
       <c r="K105" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L105" s="18">
-        <v>0</v>
+        <v>8.48E-2</v>
       </c>
       <c r="M105" s="19" t="s">
         <v>40</v>
@@ -9448,15 +9448,15 @@
       </c>
       <c r="P105" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.1024</v>
       </c>
       <c r="Q105" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>11.897600000000001</v>
       </c>
       <c r="R105" s="22">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S105" s="21">
         <f t="shared" si="11"/>
@@ -9464,7 +9464,7 @@
       </c>
       <c r="T105" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-31</v>
+        <v>-41</v>
       </c>
       <c r="U105" s="24">
         <v>0.41311075421685678</v>
@@ -9503,10 +9503,10 @@
         <v>45816</v>
       </c>
       <c r="K106" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L106" s="18">
-        <v>0</v>
+        <v>8.48E-2</v>
       </c>
       <c r="M106" s="19" t="s">
         <v>40</v>
@@ -9520,15 +9520,15 @@
       </c>
       <c r="P106" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.1024</v>
       </c>
       <c r="Q106" s="21">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>11.897600000000001</v>
       </c>
       <c r="R106" s="22">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S106" s="21">
         <f t="shared" si="11"/>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="T106" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-31</v>
+        <v>-41</v>
       </c>
       <c r="U106" s="24">
         <v>0.41311075421685678</v>
@@ -9575,7 +9575,7 @@
         <v>45942</v>
       </c>
       <c r="K107" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L107" s="18">
         <v>0</v>
@@ -9600,7 +9600,7 @@
       </c>
       <c r="R107" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S107" s="21">
         <f t="shared" si="11"/>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="T107" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U107" s="24">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>45893</v>
       </c>
       <c r="K108" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L108" s="18">
-        <v>0</v>
+        <v>0.23980000000000001</v>
       </c>
       <c r="M108" s="19" t="s">
         <v>42</v>
@@ -9664,15 +9664,15 @@
       </c>
       <c r="P108" s="21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.7960000000000003</v>
       </c>
       <c r="Q108" s="21">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>15.204000000000001</v>
       </c>
       <c r="R108" s="22">
         <f t="shared" si="10"/>
-        <v>-56</v>
+        <v>-42</v>
       </c>
       <c r="S108" s="21">
         <f t="shared" si="11"/>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="T108" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U108" s="24">
         <v>0.71590581972999912</v>
@@ -9719,7 +9719,7 @@
         <v>45942</v>
       </c>
       <c r="K109" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L109" s="18">
         <v>0</v>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="R109" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S109" s="21">
         <f t="shared" si="11"/>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="T109" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U109" s="24">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>45942</v>
       </c>
       <c r="K110" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L110" s="18">
         <v>0</v>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="R110" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S110" s="21">
         <f t="shared" si="11"/>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="T110" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U110" s="24">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALVVIP HOUSE</v>
       </c>
       <c r="H111" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I111" s="27">
         <v>45901</v>
@@ -9863,10 +9863,10 @@
         <v>45921</v>
       </c>
       <c r="K111" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L111" s="18">
-        <v>0.24279999999999999</v>
+        <v>0.4491</v>
       </c>
       <c r="M111" s="19" t="s">
         <v>42</v>
@@ -9880,15 +9880,15 @@
       </c>
       <c r="P111" s="21">
         <f t="shared" si="8"/>
-        <v>4.8559999999999999</v>
+        <v>8.9819999999999993</v>
       </c>
       <c r="Q111" s="21">
         <f t="shared" si="9"/>
-        <v>15.144</v>
+        <v>11.018000000000001</v>
       </c>
       <c r="R111" s="22">
         <f t="shared" si="10"/>
-        <v>-84</v>
+        <v>-70</v>
       </c>
       <c r="S111" s="21">
         <f t="shared" si="11"/>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="T111" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="U111" s="24">
         <v>1.1364470150796924</v>
@@ -9935,7 +9935,7 @@
         <v>45942</v>
       </c>
       <c r="K112" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L112" s="18">
         <v>0</v>
@@ -9960,7 +9960,7 @@
       </c>
       <c r="R112" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S112" s="21">
         <f t="shared" si="11"/>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="T112" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U112" s="24">
         <v>0</v>
@@ -9998,7 +9998,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALKANTIN</v>
       </c>
       <c r="H113" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I113" s="27">
         <v>45894</v>
@@ -10007,10 +10007,10 @@
         <v>45914</v>
       </c>
       <c r="K113" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L113" s="18">
-        <v>0.2228</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="M113" s="19" t="s">
         <v>40</v>
@@ -10024,15 +10024,15 @@
       </c>
       <c r="P113" s="21">
         <f t="shared" si="8"/>
-        <v>4.4559999999999995</v>
+        <v>7.734</v>
       </c>
       <c r="Q113" s="21">
         <f t="shared" si="9"/>
-        <v>15.544</v>
+        <v>12.266</v>
       </c>
       <c r="R113" s="22">
         <f t="shared" si="10"/>
-        <v>-77</v>
+        <v>-63</v>
       </c>
       <c r="S113" s="21">
         <f t="shared" si="11"/>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="T113" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="U113" s="24">
         <v>0.86888955106354271</v>
@@ -10079,10 +10079,10 @@
         <v>45930</v>
       </c>
       <c r="K114" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L114" s="18">
-        <v>0.2702</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="M114" s="19" t="s">
         <v>40</v>
@@ -10096,15 +10096,15 @@
       </c>
       <c r="P114" s="21">
         <f t="shared" si="8"/>
-        <v>7.8357999999999999</v>
+        <v>17.214400000000001</v>
       </c>
       <c r="Q114" s="21">
         <f t="shared" si="9"/>
-        <v>21.164200000000001</v>
+        <v>11.785599999999999</v>
       </c>
       <c r="R114" s="22">
         <f t="shared" si="10"/>
-        <v>-93</v>
+        <v>-79</v>
       </c>
       <c r="S114" s="21">
         <f t="shared" si="11"/>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="T114" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U114" s="24">
         <v>1.9101722387327178</v>
@@ -10142,7 +10142,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALOFFICE</v>
       </c>
       <c r="H115" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I115" s="27">
         <v>45845</v>
@@ -10151,10 +10151,10 @@
         <v>45858</v>
       </c>
       <c r="K115" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L115" s="18">
-        <v>0.20080000000000001</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="M115" s="19" t="s">
         <v>42</v>
@@ -10168,15 +10168,15 @@
       </c>
       <c r="P115" s="21">
         <f t="shared" si="8"/>
-        <v>2.6104000000000003</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="Q115" s="21">
         <f t="shared" si="9"/>
-        <v>10.3896</v>
+        <v>5.3170000000000002</v>
       </c>
       <c r="R115" s="22">
         <f t="shared" si="10"/>
-        <v>-21</v>
+        <v>-7</v>
       </c>
       <c r="S115" s="21">
         <f t="shared" si="11"/>
@@ -10184,7 +10184,7 @@
       </c>
       <c r="T115" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U115" s="24">
         <v>2.3615133681493417</v>
@@ -10223,7 +10223,7 @@
         <v>45942</v>
       </c>
       <c r="K116" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L116" s="18">
         <v>0</v>
@@ -10248,7 +10248,7 @@
       </c>
       <c r="R116" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S116" s="21">
         <f t="shared" si="11"/>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="T116" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U116" s="24">
         <v>0</v>
@@ -10295,7 +10295,7 @@
         <v>45942</v>
       </c>
       <c r="K117" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L117" s="18">
         <v>1</v>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="R117" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S117" s="21">
         <f t="shared" si="11"/>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="T117" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U117" s="24">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>45942</v>
       </c>
       <c r="K118" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L118" s="18">
         <v>0</v>
@@ -10392,7 +10392,7 @@
       </c>
       <c r="R118" s="22">
         <f t="shared" si="10"/>
-        <v>-105</v>
+        <v>-91</v>
       </c>
       <c r="S118" s="21">
         <f t="shared" si="11"/>
@@ -10400,7 +10400,7 @@
       </c>
       <c r="T118" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U118" s="24">
         <v>0</v>
@@ -10439,10 +10439,10 @@
         <v>45900</v>
       </c>
       <c r="K119" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L119" s="18">
-        <v>0.25430000000000003</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="M119" s="19" t="s">
         <v>40</v>
@@ -10456,15 +10456,15 @@
       </c>
       <c r="P119" s="21">
         <f t="shared" si="8"/>
-        <v>5.0860000000000003</v>
+        <v>10.364000000000001</v>
       </c>
       <c r="Q119" s="21">
         <f t="shared" si="9"/>
-        <v>14.914</v>
+        <v>9.6359999999999992</v>
       </c>
       <c r="R119" s="22">
         <f t="shared" si="10"/>
-        <v>-63</v>
+        <v>-49</v>
       </c>
       <c r="S119" s="21">
         <f t="shared" si="11"/>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="T119" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="U119" s="24">
         <v>1.2772542166873568</v>
@@ -10511,10 +10511,10 @@
         <v>45865</v>
       </c>
       <c r="K120" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L120" s="18">
-        <v>0.26069999999999999</v>
+        <v>0.53610000000000002</v>
       </c>
       <c r="M120" s="19" t="s">
         <v>40</v>
@@ -10528,15 +10528,15 @@
       </c>
       <c r="P120" s="21">
         <f t="shared" si="8"/>
-        <v>5.2139999999999995</v>
+        <v>10.722000000000001</v>
       </c>
       <c r="Q120" s="21">
         <f t="shared" si="9"/>
-        <v>14.786000000000001</v>
+        <v>9.2779999999999987</v>
       </c>
       <c r="R120" s="22">
         <f t="shared" si="10"/>
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="S120" s="21">
         <f t="shared" si="11"/>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="T120" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U120" s="24">
         <v>1.3021928291029847</v>
@@ -10583,7 +10583,7 @@
         <v>45930</v>
       </c>
       <c r="K121" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L121" s="18">
         <v>0</v>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="R121" s="22">
         <f t="shared" si="10"/>
-        <v>-93</v>
+        <v>-79</v>
       </c>
       <c r="S121" s="21">
         <f t="shared" si="11"/>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="T121" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U121" s="24">
         <v>2.2106399922458855</v>
@@ -10655,10 +10655,10 @@
         <v>45837</v>
       </c>
       <c r="K122" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L122" s="18">
-        <v>0.25929999999999997</v>
+        <v>0.52310000000000001</v>
       </c>
       <c r="M122" s="19" t="s">
         <v>40</v>
@@ -10672,15 +10672,15 @@
       </c>
       <c r="P122" s="21">
         <f t="shared" si="8"/>
-        <v>3.3708999999999998</v>
+        <v>6.8003</v>
       </c>
       <c r="Q122" s="21">
         <f t="shared" si="9"/>
-        <v>9.6291000000000011</v>
+        <v>6.1997</v>
       </c>
       <c r="R122" s="22">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S122" s="21">
         <f t="shared" si="11"/>
@@ -10688,7 +10688,7 @@
       </c>
       <c r="T122" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="U122" s="24">
         <v>0.94089880391742786</v>
@@ -10727,7 +10727,7 @@
         <v>45872</v>
       </c>
       <c r="K123" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L123" s="18">
         <v>0.3</v>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="R123" s="22">
         <f t="shared" si="10"/>
-        <v>-35</v>
+        <v>-21</v>
       </c>
       <c r="S123" s="21">
         <f t="shared" si="11"/>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="T123" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="U123" s="24">
         <v>0.83220228058553414</v>
@@ -10799,7 +10799,7 @@
         <v>45930</v>
       </c>
       <c r="K124" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L124" s="18">
         <v>0</v>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="R124" s="22">
         <f t="shared" si="10"/>
-        <v>-93</v>
+        <v>-79</v>
       </c>
       <c r="S124" s="21">
         <f t="shared" si="11"/>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="T124" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U124" s="24">
         <v>1.1429745636452144</v>
@@ -10862,7 +10862,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALDORMITORY FEMALE</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I125" s="27">
         <v>45901</v>
@@ -10871,10 +10871,10 @@
         <v>45893</v>
       </c>
       <c r="K125" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L125" s="18">
-        <v>0.24249999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="M125" s="19" t="s">
         <v>40</v>
@@ -10888,15 +10888,15 @@
       </c>
       <c r="P125" s="21">
         <f t="shared" si="8"/>
-        <v>-1.94</v>
+        <v>-3.7368000000000001</v>
       </c>
       <c r="Q125" s="21">
         <f t="shared" si="9"/>
-        <v>-6.0600000000000005</v>
+        <v>-4.2631999999999994</v>
       </c>
       <c r="R125" s="22">
         <f t="shared" si="10"/>
-        <v>-56</v>
+        <v>-42</v>
       </c>
       <c r="S125" s="21">
         <f t="shared" si="11"/>
@@ -10904,7 +10904,7 @@
       </c>
       <c r="T125" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U125" s="24">
         <v>0.65729302337862683</v>
@@ -10934,7 +10934,7 @@
         <v>PROJECT 1 BPEKERJAAN  ELEKTRIKALPUMP HOUSE</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I126" s="27">
         <v>45866</v>
@@ -10943,10 +10943,10 @@
         <v>45893</v>
       </c>
       <c r="K126" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L126" s="18">
-        <v>0.24970000000000001</v>
+        <v>0.5161</v>
       </c>
       <c r="M126" s="19" t="s">
         <v>40</v>
@@ -10960,15 +10960,15 @@
       </c>
       <c r="P126" s="21">
         <f t="shared" si="8"/>
-        <v>6.7419000000000002</v>
+        <v>13.934699999999999</v>
       </c>
       <c r="Q126" s="21">
         <f t="shared" si="9"/>
-        <v>20.258099999999999</v>
+        <v>13.065300000000001</v>
       </c>
       <c r="R126" s="22">
         <f t="shared" si="10"/>
-        <v>-56</v>
+        <v>-42</v>
       </c>
       <c r="S126" s="21">
         <f t="shared" si="11"/>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="T126" s="24">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U126" s="24">
         <v>1.1353862689916343</v>
@@ -11015,7 +11015,7 @@
         <v>45851</v>
       </c>
       <c r="K127" s="17">
-        <v>45837</v>
+        <v>45851</v>
       </c>
       <c r="L127" s="38">
         <v>0.3</v>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="R127" s="42">
         <f t="shared" si="10"/>
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="S127" s="21">
         <f t="shared" si="11"/>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="T127" s="43">
         <f ca="1">ROUNDUP(Table1[[#This Row],[PLAN END]]-NOW(),0)</f>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="U127" s="43">
         <v>0.45616355925610708</v>
@@ -11056,13 +11056,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H127">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
